--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
+    <sheet name="FEB 16" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="41">
   <si>
     <t>Suministro 1395500</t>
-  </si>
-  <si>
-    <t>FECHA DE VENCIMIENTO: 07-ENE-2016</t>
   </si>
   <si>
     <t>MEDIDOR PRINCIPAL</t>
@@ -135,6 +133,21 @@
   </si>
   <si>
     <t>(18/01/16)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-FEB-2016</t>
+  </si>
+  <si>
+    <t>Consumo Energía FEBRERO 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-MAR-2016</t>
+  </si>
+  <si>
+    <t>(16/02/16)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -494,15 +507,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -556,15 +560,6 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -679,12 +674,6 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,6 +696,36 @@
     </xf>
     <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,11 +1007,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M105"/>
+  <dimension ref="B2:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1002,7 +1019,7 @@
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="0.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1025,7 +1042,7 @@
     </row>
     <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1035,7 +1052,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="M3" s="4" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,617 +1068,624 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="10" t="s">
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>32227.4</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18">
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19">
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
         <f>(H6/4)</f>
         <v>0.62250000000000005</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <f>(H6/4)</f>
         <v>0.62250000000000005</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <f>(H6/4)</f>
         <v>0.62250000000000005</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="16">
         <f>(H6/4)</f>
         <v>0.62250000000000005</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>31689.1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14">
-        <v>31689.1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
         <v>1.37</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19">
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
         <f>(H7/4)</f>
         <v>0.34250000000000003</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <f>(H7/4)</f>
         <v>0.34250000000000003</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="16">
         <f>(H7/4)</f>
         <v>0.34250000000000003</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="16">
         <f>(H7/4)</f>
         <v>0.34250000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
         <f>(C6-C7)</f>
         <v>538.30000000000291</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>0.45950000000000002</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="22">
         <f>(C8*G8)</f>
         <v>247.34885000000133</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26">
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
         <f>(C14*G8)</f>
         <v>25.548200000000012</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="23">
         <f>(C19*G8)</f>
         <v>5.2842500000000001</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="23">
         <f>(C24*G8)</f>
         <v>31.016250000000003</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="23">
         <f>(C27*G8)</f>
         <v>185.50015000000133</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
         <v>15.75</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19">
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
         <f>(H9/4)</f>
         <v>3.9375</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <f>(H9/4)</f>
         <v>3.9375</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="16">
         <f>(H9/4)</f>
         <v>3.9375</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="16">
         <f>(H9/4)</f>
         <v>3.9375</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
         <v>0</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19">
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
         <f>H10/4</f>
         <v>0</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <f>H10/4</f>
         <v>0</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="16">
         <f>H10/4</f>
         <v>0</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="16">
         <f>H10/4</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
         <f>((SUM(H6:H9)+H10)*0.18)</f>
         <v>48.052593000000243</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <f>((SUM(J6:J9)+J10)*0.18)</f>
         <v>5.4811260000000015</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <f>((SUM(K6:K9)+K10)*0.18)</f>
         <v>1.833615</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <f t="shared" si="0"/>
         <v>6.4653749999999999</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="15">
         <f t="shared" si="0"/>
         <v>34.272477000000237</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
         <v>459.8</v>
       </c>
-      <c r="D12" s="15" t="str">
+      <c r="D12" s="12" t="str">
         <f>D6</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>4.25</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19">
+      <c r="I12" s="15"/>
+      <c r="J12" s="16">
         <f>(H12/4)</f>
         <v>1.0625</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="16">
         <f>(H12/4)</f>
         <v>1.0625</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="16">
         <f>(H12/4)</f>
         <v>1.0625</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="16">
         <f>(H12/4)</f>
         <v>1.0625</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
         <v>404.2</v>
       </c>
-      <c r="D13" s="15" t="str">
+      <c r="D13" s="12" t="str">
         <f>D7</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19">
         <f>(C12-C13)</f>
         <v>55.600000000000023</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18">
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
         <f>SUM(H6:H10)+SUM(H11:H12)</f>
         <v>319.26144300000158</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <f t="shared" si="1"/>
         <v>36.994326000000015</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <f t="shared" si="1"/>
         <v>13.082865</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
         <v>43.446625000000004</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="15">
         <f t="shared" si="1"/>
         <v>225.73762700000157</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18">
+      <c r="G16" s="14"/>
+      <c r="H16" s="15">
         <v>0.09</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
         <f>H16/4</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <f>H16/4</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="15">
         <f>H16/4</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="15">
         <f>H16/4</f>
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14">
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11">
         <v>448.6</v>
       </c>
-      <c r="D17" s="15" t="str">
+      <c r="D17" s="12" t="str">
         <f>D6</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
         <v>0.05</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="30">
+      <c r="I17" s="15"/>
+      <c r="J17" s="24">
         <f>(H17/4)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="24">
         <f>(H17/4)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="24">
         <f>(H17/4)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="24">
         <f>(H17/4)</f>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="14">
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
         <v>437.1</v>
       </c>
-      <c r="D18" s="15" t="str">
+      <c r="D18" s="12" t="str">
         <f>D7</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="22">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="19">
         <f>(C17-C18)</f>
         <v>11.5</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34">
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28">
         <f>(H14+H16-H17)</f>
         <v>319.30144300000154</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="28">
         <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="28">
         <f t="shared" si="2"/>
         <v>37.004326000000013</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="28">
         <f t="shared" si="2"/>
         <v>13.092865000000002</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="28">
         <f t="shared" si="2"/>
         <v>43.456625000000003</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="28">
         <f t="shared" si="2"/>
         <v>225.74762700000159</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="N19" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="77">
+        <f>SUM(J19:M19)</f>
+        <v>319.3014430000016</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11">
         <v>462</v>
       </c>
-      <c r="D22" s="15" t="str">
+      <c r="D22" s="12" t="str">
         <f>D6</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11">
         <v>394.5</v>
       </c>
-      <c r="D23" s="15" t="str">
+      <c r="D23" s="12" t="str">
         <f>D7</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19">
         <f>C22-C23</f>
         <v>67.5</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="D24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="36" t="s">
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="40">
+      <c r="C27" s="34">
         <f>(C8-SUM(C14,C19,C24))</f>
         <v>403.70000000000289</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43">
+      <c r="D27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37">
         <f>M19</f>
         <v>225.74762700000159</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="32"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-    </row>
-    <row r="29" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="32"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-    </row>
-    <row r="30" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-    </row>
-    <row r="31" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="28"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="26"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -1670,14 +1694,14 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="48"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="50"/>
-    </row>
-    <row r="32" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="43"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="44"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía ENERO 2016</v>
@@ -1686,15 +1710,15 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="48"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="51" t="str">
+      <c r="J32" s="45" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 07-ENE-2016</v>
-      </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="46"/>
+        <v>FECHA DE VENCIMIENTO: 03-FEB-2016</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="40"/>
     </row>
     <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
@@ -1706,579 +1730,579 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
     </row>
     <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="56">
+      <c r="B35" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="50">
         <f>C6</f>
         <v>32227.4</v>
       </c>
-      <c r="D35" s="15" t="str">
+      <c r="D35" s="12" t="str">
         <f>D6</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18">
+      <c r="E35" s="13"/>
+      <c r="F35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15">
         <f t="shared" ref="H35:I41" si="3">H6</f>
         <v>2.4900000000000002</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="15">
         <f>K6</f>
         <v>0.62250000000000005</v>
       </c>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="59">
+      <c r="B36" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="53">
         <f>C7</f>
         <v>31689.1</v>
       </c>
-      <c r="D36" s="60" t="str">
+      <c r="D36" s="54" t="str">
         <f>D7</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18">
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
         <f t="shared" si="3"/>
         <v>1.37</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18">
+      <c r="I36" s="15"/>
+      <c r="J36" s="15">
         <f>K7</f>
         <v>0.34250000000000003</v>
       </c>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="62">
+      <c r="B37" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="56">
         <f>C8</f>
         <v>538.30000000000291</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="G37" s="14">
         <f>G8</f>
         <v>0.45950000000000002</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="22">
         <f t="shared" si="3"/>
         <v>247.34885000000133</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22">
         <f t="shared" ref="J37:J48" si="4">K8</f>
         <v>5.2842500000000001</v>
       </c>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
     </row>
     <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15">
         <f t="shared" si="3"/>
         <v>15.75</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18">
+      <c r="I38" s="15"/>
+      <c r="J38" s="15">
         <f t="shared" si="4"/>
         <v>3.9375</v>
       </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
     </row>
     <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9" t="str">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="str">
         <f>F10</f>
         <v>Interés Compensatorio</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18">
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18">
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="str">
+      <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18">
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
         <f t="shared" si="3"/>
         <v>48.052593000000243</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="15">
         <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="15">
         <f t="shared" si="4"/>
         <v>1.833615</v>
       </c>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="65">
+      <c r="B41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="59">
         <f>C12</f>
         <v>459.8</v>
       </c>
-      <c r="D41" s="66" t="str">
+      <c r="D41" s="60" t="str">
         <f>D35</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="17">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="14">
         <f>G12</f>
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="15">
         <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18">
+      <c r="I41" s="15"/>
+      <c r="J41" s="15">
         <f t="shared" si="4"/>
         <v>1.0625</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
     </row>
     <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="67">
+      <c r="B42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="61">
         <f>C13</f>
         <v>404.2</v>
       </c>
-      <c r="D42" s="60" t="str">
+      <c r="D42" s="54" t="str">
         <f>D36</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
     </row>
     <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="22">
+      <c r="B43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="19">
         <f>C14</f>
         <v>55.600000000000023</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18">
+      <c r="D43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15">
         <f>H14</f>
         <v>319.26144300000158</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="15">
         <f t="shared" ref="I43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="15">
         <f t="shared" si="4"/>
         <v>13.082865</v>
       </c>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
     </row>
     <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="27" t="str">
+      <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18">
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15">
         <f>H16</f>
         <v>0.09</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18">
+      <c r="I45" s="15"/>
+      <c r="J45" s="15">
         <f t="shared" si="4"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
     </row>
     <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="65">
+      <c r="B46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="59">
         <f>C17</f>
         <v>448.6</v>
       </c>
-      <c r="D46" s="66" t="str">
+      <c r="D46" s="60" t="str">
         <f>D41</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
         <f>H17</f>
         <v>0.05</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18">
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
         <f t="shared" si="4"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="67">
+      <c r="B47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="61">
         <f>C18</f>
         <v>437.1</v>
       </c>
-      <c r="D47" s="60" t="str">
+      <c r="D47" s="54" t="str">
         <f>D42</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
     </row>
     <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="22">
+      <c r="B48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="19">
         <f>C19</f>
         <v>11.5</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34">
+      <c r="D48" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28">
         <f>(H43+H45-H46)</f>
         <v>319.30144300000154</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="28">
         <f t="shared" ref="I48" si="7">(I43+I45-I46)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="22">
         <f t="shared" si="4"/>
         <v>13.092865000000002</v>
       </c>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="16"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="46"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="13"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="16"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="46"/>
+      <c r="B50" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="65">
+      <c r="B51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="59">
         <f>C22</f>
         <v>462</v>
       </c>
-      <c r="D51" s="66" t="str">
+      <c r="D51" s="60" t="str">
         <f>D35</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="46"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="67">
+      <c r="B52" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="61">
         <f>C23</f>
         <v>394.5</v>
       </c>
-      <c r="D52" s="60" t="str">
+      <c r="D52" s="54" t="str">
         <f>D36</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="46"/>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="22">
+      <c r="B53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="19">
         <f>C24</f>
         <v>67.5</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="46"/>
+      <c r="D53" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="16"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="46"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="str">
+      <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="36" t="s">
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="40">
+      <c r="C56" s="34">
         <f>C27</f>
         <v>403.70000000000289</v>
       </c>
-      <c r="D56" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43">
+      <c r="D56" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37">
         <f>J48</f>
         <v>13.092865000000002</v>
       </c>
-      <c r="I56" s="74"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F58" s="32"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="75"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="50"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="44"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F60" s="32"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="46"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I61" s="44"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -2287,13 +2311,13 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="48"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="46"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>B32</f>
         <v>Consumo Energía ENERO 2016</v>
@@ -2302,16 +2326,16 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="48"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-      <c r="J64" s="51" t="str">
+      <c r="J64" s="45" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 07-ENE-2016</v>
-      </c>
-      <c r="K64" s="46"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+        <v>FECHA DE VENCIMIENTO: 03-FEB-2016</v>
+      </c>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2321,522 +2345,528 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="46"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="10" t="s">
+      <c r="G66" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="H66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="10" t="s">
+      <c r="I66" s="8"/>
+      <c r="J66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K66" s="46"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="56">
+      <c r="C67" s="50">
         <f>C6</f>
         <v>32227.4</v>
       </c>
-      <c r="D67" s="15" t="str">
+      <c r="D67" s="12" t="str">
         <f>D6</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="18">
+      <c r="E67" s="13"/>
+      <c r="F67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15">
         <f>H6</f>
         <v>2.4900000000000002</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="19">
+      <c r="I67" s="15"/>
+      <c r="J67" s="16">
         <f>M6</f>
         <v>0.62250000000000005</v>
       </c>
-      <c r="K67" s="46"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="59">
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="53">
         <f>C7</f>
         <v>31689.1</v>
       </c>
-      <c r="D68" s="60" t="str">
+      <c r="D68" s="54" t="str">
         <f>D7</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="18">
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
         <f>H7</f>
         <v>1.37</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="19">
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
         <f>M7</f>
         <v>0.34250000000000003</v>
       </c>
-      <c r="K68" s="46"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="62">
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="56">
         <f>C8</f>
         <v>538.30000000000291</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="24">
+      <c r="G69" s="21">
         <f>G8</f>
         <v>0.45950000000000002</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H69" s="22">
         <f t="shared" ref="H69:H80" si="8">H8</f>
         <v>247.34885000000133</v>
       </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26">
+      <c r="I69" s="22"/>
+      <c r="J69" s="23">
         <f t="shared" ref="J69:J80" si="9">M8</f>
         <v>185.50015000000133</v>
       </c>
-      <c r="K69" s="46"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="18">
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15">
         <f t="shared" si="8"/>
         <v>15.75</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="19">
+      <c r="I70" s="15"/>
+      <c r="J70" s="16">
         <f t="shared" si="9"/>
         <v>3.9375</v>
       </c>
-      <c r="K70" s="46"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9" t="str">
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="str">
         <f>F10</f>
         <v>Interés Compensatorio</v>
       </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18">
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="19">
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K71" s="46"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="27" t="str">
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="18">
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
         <f t="shared" si="8"/>
         <v>48.052593000000243</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="15">
         <f t="shared" ref="I72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="19">
+      <c r="J72" s="16">
         <f t="shared" si="9"/>
         <v>34.272477000000237</v>
       </c>
-      <c r="K72" s="46"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="65">
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="59">
         <f>C12</f>
         <v>459.8</v>
       </c>
-      <c r="D73" s="66" t="str">
+      <c r="D73" s="60" t="str">
         <f>D67</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="17">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="14">
         <f>G12</f>
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="15">
         <f t="shared" si="8"/>
         <v>4.25</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="19">
+      <c r="I73" s="15"/>
+      <c r="J73" s="16">
         <f t="shared" si="9"/>
         <v>1.0625</v>
       </c>
-      <c r="K73" s="46"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="67">
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="61">
         <f>C13</f>
         <v>404.2</v>
       </c>
-      <c r="D74" s="60" t="str">
+      <c r="D74" s="54" t="str">
         <f>D68</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="22">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="19">
         <f>C14</f>
         <v>55.600000000000023</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="17"/>
-      <c r="H75" s="18">
+      <c r="D75" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15">
         <f t="shared" si="8"/>
         <v>319.26144300000158</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I75" s="15">
         <f t="shared" ref="I75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
         <v>0</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J75" s="16">
         <f t="shared" si="9"/>
         <v>225.73762700000157</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="str">
+    <row r="76" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" s="17"/>
-      <c r="H77" s="18">
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15">
         <f t="shared" si="8"/>
         <v>0.09</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="19">
+      <c r="I77" s="15"/>
+      <c r="J77" s="16">
         <f t="shared" si="9"/>
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="65">
+    <row r="78" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="59">
         <f>C17</f>
         <v>448.6</v>
       </c>
-      <c r="D78" s="66" t="str">
+      <c r="D78" s="60" t="str">
         <f>D73</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="17"/>
-      <c r="H78" s="18">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
         <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19">
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
         <f t="shared" si="9"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="67">
+    <row r="79" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="61">
         <f>C18</f>
         <v>437.1</v>
       </c>
-      <c r="D79" s="60" t="str">
+      <c r="D79" s="54" t="str">
         <f>D74</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="19"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="22">
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="19">
         <f>C19</f>
         <v>11.5</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="25">
+      <c r="D80" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="22">
         <f t="shared" si="8"/>
         <v>319.30144300000154</v>
       </c>
-      <c r="I80" s="34">
+      <c r="I80" s="28">
         <f t="shared" ref="I80" si="12">(I75+I77-I78)</f>
         <v>0</v>
       </c>
-      <c r="J80" s="26">
+      <c r="J80" s="23">
         <f t="shared" si="9"/>
         <v>225.74762700000159</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="65">
+    <row r="81" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="81"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="59">
         <f>C22</f>
         <v>462</v>
       </c>
-      <c r="D83" s="66" t="str">
+      <c r="D83" s="60" t="str">
         <f>D67</f>
         <v>(18/01/16)</v>
       </c>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="67">
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="61">
         <f>C23</f>
         <v>394.5</v>
       </c>
-      <c r="D84" s="60" t="str">
+      <c r="D84" s="54" t="str">
         <f>D68</f>
         <v>(16/12/15)</v>
       </c>
-      <c r="E84" s="16"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="22">
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="19">
         <f>C24</f>
         <v>67.5</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="27" t="str">
+      <c r="D85" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" s="40">
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="32"/>
+    </row>
+    <row r="88" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="34">
         <f>C27</f>
         <v>403.70000000000289</v>
       </c>
-      <c r="D88" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="42"/>
-      <c r="H88" s="44">
+      <c r="D88" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="38">
         <f>J80</f>
         <v>225.74762700000159</v>
       </c>
-      <c r="I88" s="34"/>
-      <c r="J88" s="9"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="6"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="77"/>
+      <c r="B93" s="69"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="78"/>
-      <c r="E95" s="79"/>
+      <c r="B95" s="70"/>
+      <c r="E95" s="71"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="78"/>
-      <c r="E96" s="79"/>
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="78"/>
-      <c r="E97" s="79"/>
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="78"/>
-      <c r="E98" s="79"/>
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C101" s="80"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="81"/>
-      <c r="F101" s="80"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="80"/>
-      <c r="K101" s="83"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="72"/>
+      <c r="K101" s="75"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="80"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="81"/>
-      <c r="F102" s="80"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="80"/>
-      <c r="K102" s="83"/>
+      <c r="B102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D103" s="80"/>
-      <c r="E103" s="81"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="80"/>
-      <c r="K103" s="83"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K104" s="83"/>
+      <c r="K104" s="75"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J105" s="80"/>
-      <c r="K105" s="83"/>
+      <c r="J105" s="72"/>
+      <c r="K105" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -2846,12 +2876,1885 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>32840.199999999997</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>32227.4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>612.79999999999563</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.4637</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>284.15535999999798</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C14*G8)</f>
+        <v>22.721299999999999</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C19*G8)</f>
+        <v>29.12035999999998</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C24*G8)</f>
+        <v>22.999520000000011</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C27*G8)</f>
+        <v>209.31417999999798</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>15.75</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>0.04</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>0.04</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <f>((SUM(H6:H9)+H10)*0.18)</f>
+        <v>54.70656479999964</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" ref="I11:M11" si="0">((SUM(I6:I9)+I10)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <f>((SUM(J6:J9)+J10)*0.18)</f>
+        <v>4.9794839999999994</v>
+      </c>
+      <c r="K11" s="15">
+        <f>((SUM(K6:K9)+K10)*0.18)</f>
+        <v>6.1313147999999957</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="0"/>
+        <v>5.0295636000000012</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="0"/>
+        <v>38.566202399999632</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>508.8</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>D6</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>4.84</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16">
+        <f>(H12/4)</f>
+        <v>1.21</v>
+      </c>
+      <c r="K12" s="16">
+        <f>(H12/4)</f>
+        <v>1.21</v>
+      </c>
+      <c r="L12" s="16">
+        <f>(H12/4)</f>
+        <v>1.21</v>
+      </c>
+      <c r="M12" s="16">
+        <f>(H12/4)</f>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>459.8</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D7</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19">
+        <f>(C12-C13)</f>
+        <v>49</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <f>SUM(H6:H10)+SUM(H11:H12)</f>
+        <v>363.47192479999768</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" ref="I14:M14" si="1">SUM(I6:I10)+SUM(I11:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>33.853283999999995</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>41.404174799999979</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="1"/>
+        <v>34.18158360000001</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="1"/>
+        <v>254.03288239999762</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15">
+        <f>H16/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="15">
+        <f>H16/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="15">
+        <f>H16/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="M16" s="15">
+        <f>H16/4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11">
+        <v>511.4</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f>D6</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="24">
+        <f>(H17/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K17" s="24">
+        <f>(H17/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L17" s="24">
+        <f>(H17/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M17" s="24">
+        <f>(H17/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
+        <v>448.6</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D7</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="19">
+        <f>(C17-C18)</f>
+        <v>62.799999999999955</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28">
+        <f>(H14+H16-H17)</f>
+        <v>363.50192479999765</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19:M19" si="2">(I14+I16-I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" si="2"/>
+        <v>33.860783999999995</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="2"/>
+        <v>41.411674799999979</v>
+      </c>
+      <c r="L19" s="28">
+        <f t="shared" si="2"/>
+        <v>34.189083600000011</v>
+      </c>
+      <c r="M19" s="28">
+        <f t="shared" si="2"/>
+        <v>254.04038239999764</v>
+      </c>
+      <c r="N19" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="77">
+        <f>SUM(J19:M19)</f>
+        <v>363.5019247999976</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11">
+        <v>511.6</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f>D6</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11">
+        <v>462</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D7</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19">
+        <f>C22-C23</f>
+        <v>49.600000000000023</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="34">
+        <f>(C8-SUM(C14,C19,C24))</f>
+        <v>451.39999999999566</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37">
+        <f>M19</f>
+        <v>254.04038239999764</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="26"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="44"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía FEBRERO 2016</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-MAR-2016</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+    </row>
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="48"/>
+      <c r="J34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="50">
+        <f>C6</f>
+        <v>32840.199999999997</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <f>D6</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15">
+        <f t="shared" ref="H35:I41" si="3">H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <f>K6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+    </row>
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="53">
+        <f>C7</f>
+        <v>32227.4</v>
+      </c>
+      <c r="D36" s="54" t="str">
+        <f>D7</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f t="shared" si="3"/>
+        <v>1.37</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15">
+        <f>K7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="56">
+        <f>C8</f>
+        <v>612.79999999999563</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="14">
+        <f>G8</f>
+        <v>0.4637</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="3"/>
+        <v>284.15535999999798</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22">
+        <f t="shared" ref="J37:J48" si="4">K8</f>
+        <v>29.12035999999998</v>
+      </c>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+    </row>
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15">
+        <f t="shared" si="3"/>
+        <v>15.75</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15">
+        <f t="shared" si="4"/>
+        <v>3.9375</v>
+      </c>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+    </row>
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="78" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f t="shared" si="3"/>
+        <v>54.70656479999964</v>
+      </c>
+      <c r="I40" s="15">
+        <f t="shared" ref="I40" si="5">((SUM(I35:I38)-I39)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
+        <f t="shared" si="4"/>
+        <v>6.1313147999999957</v>
+      </c>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+    </row>
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="59">
+        <f>C12</f>
+        <v>508.8</v>
+      </c>
+      <c r="D41" s="60" t="str">
+        <f>D35</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="14">
+        <f>G12</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H41" s="15">
+        <f t="shared" si="3"/>
+        <v>4.84</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15">
+        <f t="shared" si="4"/>
+        <v>1.21</v>
+      </c>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+    </row>
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="61">
+        <f>C13</f>
+        <v>459.8</v>
+      </c>
+      <c r="D42" s="54" t="str">
+        <f>D36</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="19">
+        <f>C14</f>
+        <v>49</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15">
+        <f>H14</f>
+        <v>363.47192479999768</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" ref="I43" si="6">SUM(I35:I39)+SUM(I40:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <f t="shared" si="4"/>
+        <v>41.404174799999979</v>
+      </c>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+    </row>
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+    </row>
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="78" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15">
+        <f>H16</f>
+        <v>0.08</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+    </row>
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="59">
+        <f>C17</f>
+        <v>511.4</v>
+      </c>
+      <c r="D46" s="60" t="str">
+        <f>D41</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>0.05</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="4"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+    </row>
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="61">
+        <f>C18</f>
+        <v>448.6</v>
+      </c>
+      <c r="D47" s="54" t="str">
+        <f>D42</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+    </row>
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="19">
+        <f>C19</f>
+        <v>62.799999999999955</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28">
+        <f>(H43+H45-H46)</f>
+        <v>363.50192479999765</v>
+      </c>
+      <c r="I48" s="28">
+        <f t="shared" ref="I48" si="7">(I43+I45-I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="22">
+        <f t="shared" si="4"/>
+        <v>41.411674799999979</v>
+      </c>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+    </row>
+    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="13"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="59">
+        <f>C22</f>
+        <v>511.6</v>
+      </c>
+      <c r="D51" s="60" t="str">
+        <f>D35</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="61">
+        <f>C23</f>
+        <v>462</v>
+      </c>
+      <c r="D52" s="54" t="str">
+        <f>D36</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="19">
+        <f>C24</f>
+        <v>49.600000000000023</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="78" t="str">
+        <f>B26</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="34">
+        <f>C27</f>
+        <v>451.39999999999566</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37">
+        <f>J48</f>
+        <v>41.411674799999979</v>
+      </c>
+      <c r="I56" s="66"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="38"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="26"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+    </row>
+    <row r="59" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="67"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="44"/>
+    </row>
+    <row r="60" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="26"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
+    </row>
+    <row r="61" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B32</f>
+        <v>Consumo Energía FEBRERO 2016</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-MAR-2016</v>
+      </c>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="50">
+        <f>C6</f>
+        <v>32840.199999999997</v>
+      </c>
+      <c r="D67" s="12" t="str">
+        <f>D6</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16">
+        <f>M6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="53">
+        <f>C7</f>
+        <v>32227.4</v>
+      </c>
+      <c r="D68" s="54" t="str">
+        <f>D7</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="56">
+        <f>C8</f>
+        <v>612.79999999999563</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="21">
+        <f>G8</f>
+        <v>0.4637</v>
+      </c>
+      <c r="H69" s="22">
+        <f t="shared" ref="H69:H80" si="8">H8</f>
+        <v>284.15535999999798</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="23">
+        <f t="shared" ref="J69:J80" si="9">M8</f>
+        <v>209.31417999999798</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15">
+        <f t="shared" si="8"/>
+        <v>15.75</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16">
+        <f t="shared" si="9"/>
+        <v>3.9375</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f t="shared" si="8"/>
+        <v>0.16</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f t="shared" si="9"/>
+        <v>0.04</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="78" t="str">
+        <f>B11</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f t="shared" si="8"/>
+        <v>54.70656479999964</v>
+      </c>
+      <c r="I72" s="15">
+        <f t="shared" ref="I72" si="10">((SUM(I67:I70)-I71)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="16">
+        <f t="shared" si="9"/>
+        <v>38.566202399999632</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="59">
+        <f>C12</f>
+        <v>508.8</v>
+      </c>
+      <c r="D73" s="60" t="str">
+        <f>D67</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="14">
+        <f>G12</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H73" s="15">
+        <f t="shared" si="8"/>
+        <v>4.84</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16">
+        <f t="shared" si="9"/>
+        <v>1.21</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="61">
+        <f>C13</f>
+        <v>459.8</v>
+      </c>
+      <c r="D74" s="54" t="str">
+        <f>D68</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="19">
+        <f>C14</f>
+        <v>49</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15">
+        <f t="shared" si="8"/>
+        <v>363.47192479999768</v>
+      </c>
+      <c r="I75" s="15">
+        <f t="shared" ref="I75" si="11">SUM(I67:I71)+SUM(I72:I73)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="16">
+        <f t="shared" si="9"/>
+        <v>254.03288239999762</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="78" t="str">
+        <f>B16</f>
+        <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
+      </c>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15">
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="59">
+        <f>C17</f>
+        <v>511.4</v>
+      </c>
+      <c r="D78" s="60" t="str">
+        <f>D73</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="9"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="61">
+        <f>C18</f>
+        <v>448.6</v>
+      </c>
+      <c r="D79" s="54" t="str">
+        <f>D74</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="19">
+        <f>C19</f>
+        <v>62.799999999999955</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="22">
+        <f t="shared" si="8"/>
+        <v>363.50192479999765</v>
+      </c>
+      <c r="I80" s="28">
+        <f t="shared" ref="I80" si="12">(I75+I77-I78)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="23">
+        <f t="shared" si="9"/>
+        <v>254.04038239999764</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="81"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="59">
+        <f>C22</f>
+        <v>511.6</v>
+      </c>
+      <c r="D83" s="60" t="str">
+        <f>D67</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="61">
+        <f>C23</f>
+        <v>462</v>
+      </c>
+      <c r="D84" s="54" t="str">
+        <f>D68</f>
+        <v>(18/01/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="19">
+        <f>C24</f>
+        <v>49.600000000000023</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="78" t="str">
+        <f>B55</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="31"/>
+      <c r="H87" s="32"/>
+    </row>
+    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="34">
+        <f>C27</f>
+        <v>451.39999999999566</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="38">
+        <f>J80</f>
+        <v>254.04038239999764</v>
+      </c>
+      <c r="I88" s="28"/>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="93" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="69"/>
+    </row>
+    <row r="95" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="70"/>
+      <c r="E95" s="71"/>
+    </row>
+    <row r="96" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="72"/>
+      <c r="K101" s="75"/>
+    </row>
+    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="72"/>
+      <c r="K105" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B72:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disco_D\Documentos\Pagos\Luz\SUM 1395500\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
     <sheet name="FEB 16" sheetId="2" r:id="rId2"/>
+    <sheet name="MAR 16" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="46">
   <si>
     <t>Suministro 1395500</t>
   </si>
@@ -148,6 +149,21 @@
   </si>
   <si>
     <t>(16/02/16)</t>
+  </si>
+  <si>
+    <t>Consumo Energía MARZO 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 04-ABR-2016</t>
+  </si>
+  <si>
+    <t>(16/03/16)</t>
+  </si>
+  <si>
+    <t>Nota de Crédito Res. N° 012-2016-OS/CD</t>
+  </si>
+  <si>
+    <t>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</t>
   </si>
 </sst>
 </file>
@@ -1011,22 +1027,22 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1056,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1067,7 +1083,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>185.50015000000133</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1239,7 +1255,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1269,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
@@ -1305,7 +1321,7 @@
         <v>34.272477000000237</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1360,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1381,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
@@ -1406,7 +1422,7 @@
         <v>225.73762700000157</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1420,7 +1436,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1505,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1526,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
@@ -1558,13 +1574,13 @@
         <v>319.3014430000016</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
@@ -1572,7 +1588,7 @@
       <c r="D21" s="80"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1601,7 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>12</v>
       </c>
@@ -1598,7 +1614,7 @@
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>14</v>
       </c>
@@ -1611,13 +1627,13 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
         <v>28</v>
       </c>
@@ -1630,7 +1646,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
@@ -1654,7 +1670,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="26"/>
       <c r="G28" s="36"/>
       <c r="H28" s="38"/>
@@ -1663,7 +1679,7 @@
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
     </row>
-    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="26"/>
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
@@ -1672,7 +1688,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -1685,7 +1701,7 @@
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -1701,7 +1717,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía ENERO 2016</v>
@@ -1720,7 +1736,7 @@
       <c r="K32" s="46"/>
       <c r="L32" s="40"/>
     </row>
-    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1733,7 +1749,7 @@
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
     </row>
-    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
@@ -1757,7 +1773,7 @@
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
     </row>
-    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="49" t="s">
         <v>9</v>
       </c>
@@ -1790,7 +1806,7 @@
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
     </row>
-    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>12</v>
       </c>
@@ -1820,7 +1836,7 @@
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
     </row>
-    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="55" t="s">
         <v>14</v>
       </c>
@@ -1852,7 +1868,7 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1874,7 +1890,7 @@
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
     </row>
-    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1897,7 +1913,7 @@
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
     </row>
-    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
@@ -1925,7 +1941,7 @@
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
     </row>
-    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>9</v>
       </c>
@@ -1958,7 +1974,7 @@
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
     </row>
-    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
@@ -1980,7 +1996,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
     </row>
-    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>14</v>
       </c>
@@ -2012,7 +2028,7 @@
       <c r="L43" s="58"/>
       <c r="M43" s="58"/>
     </row>
-    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2026,7 +2042,7 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
     </row>
-    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
@@ -2051,7 +2067,7 @@
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
     </row>
-    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>9</v>
       </c>
@@ -2081,7 +2097,7 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
     </row>
-    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
@@ -2103,7 +2119,7 @@
       <c r="L47" s="63"/>
       <c r="M47" s="63"/>
     </row>
-    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>14</v>
       </c>
@@ -2135,7 +2151,7 @@
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2143,7 +2159,7 @@
       <c r="K49" s="63"/>
       <c r="L49" s="40"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="78" t="s">
         <v>27</v>
       </c>
@@ -2153,7 +2169,7 @@
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>9</v>
       </c>
@@ -2169,7 +2185,7 @@
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2201,7 @@
       <c r="K52" s="63"/>
       <c r="L52" s="40"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2216,7 @@
       <c r="K53" s="63"/>
       <c r="L53" s="40"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2208,7 +2224,7 @@
       <c r="K54" s="63"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
@@ -2224,7 +2240,7 @@
       <c r="K55" s="65"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="33" t="s">
         <v>30</v>
       </c>
@@ -2249,13 +2265,13 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I57" s="38"/>
       <c r="J57" s="39"/>
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F58" s="26"/>
       <c r="G58" s="36"/>
       <c r="H58" s="38"/>
@@ -2264,7 +2280,7 @@
       <c r="K58" s="40"/>
       <c r="L58" s="40"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" s="67"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -2277,7 +2293,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="44"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F60" s="26"/>
       <c r="G60" s="36"/>
       <c r="H60" s="38"/>
@@ -2285,12 +2301,12 @@
       <c r="J60" s="39"/>
       <c r="K60" s="40"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I61" s="38"/>
       <c r="J61" s="39"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -2302,7 +2318,7 @@
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -2317,7 +2333,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="str">
         <f>B32</f>
         <v>Consumo Energía ENERO 2016</v>
@@ -2335,7 +2351,7 @@
       </c>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2347,7 +2363,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="83" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2385,7 @@
       </c>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="49" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2413,7 @@
       </c>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="52" t="s">
         <v>12</v>
       </c>
@@ -2425,7 +2441,7 @@
       </c>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="55" t="s">
         <v>14</v>
       </c>
@@ -2455,7 +2471,7 @@
       </c>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2475,7 +2491,7 @@
       </c>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2496,7 +2512,7 @@
       </c>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
@@ -2522,7 +2538,7 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2569,7 @@
       </c>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2588,7 @@
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
         <v>14</v>
       </c>
@@ -2601,7 +2617,7 @@
         <v>225.73762700000157</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2612,7 +2628,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
@@ -2634,7 +2650,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>9</v>
       </c>
@@ -2661,7 +2677,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
         <v>12</v>
       </c>
@@ -2680,7 +2696,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -2709,13 +2725,13 @@
         <v>225.74762700000159</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="78" t="s">
         <v>27</v>
       </c>
@@ -2723,7 +2739,7 @@
       <c r="D82" s="82"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>9</v>
       </c>
@@ -2737,7 +2753,7 @@
       </c>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="17" t="s">
         <v>12</v>
       </c>
@@ -2751,7 +2767,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -2764,13 +2780,13 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
@@ -2784,7 +2800,7 @@
       <c r="G87" s="31"/>
       <c r="H87" s="32"/>
     </row>
-    <row r="88" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="33" t="s">
         <v>30</v>
       </c>
@@ -2807,26 +2823,26 @@
       <c r="I88" s="28"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="69"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="70"/>
       <c r="E95" s="71"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="70"/>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="70"/>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="70"/>
       <c r="E98" s="71"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
       <c r="E101" s="73"/>
@@ -2835,7 +2851,7 @@
       <c r="H101" s="72"/>
       <c r="K101" s="75"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="73"/>
@@ -2844,7 +2860,7 @@
       <c r="H102" s="72"/>
       <c r="K102" s="75"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D103" s="72"/>
       <c r="E103" s="73"/>
       <c r="F103" s="72"/>
@@ -2852,10 +2868,10 @@
       <c r="H103" s="72"/>
       <c r="K103" s="75"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K104" s="75"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J105" s="72"/>
       <c r="K105" s="75"/>
     </row>
@@ -2886,26 +2902,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2935,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2934,7 +2950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2946,7 +2962,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3028,7 @@
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3064,7 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +3104,7 @@
         <v>209.31417999999798</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3118,7 +3134,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3148,7 +3164,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
@@ -3184,7 +3200,7 @@
         <v>38.566202399999632</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
@@ -3223,7 +3239,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -3244,7 +3260,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
@@ -3285,7 +3301,7 @@
         <v>254.03288239999762</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3299,7 +3315,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3347,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
@@ -3368,7 +3384,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>12</v>
       </c>
@@ -3389,7 +3405,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
@@ -3437,13 +3453,13 @@
         <v>363.5019247999976</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3467,7 @@
       <c r="D21" s="80"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>9</v>
       </c>
@@ -3464,7 +3480,7 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3493,7 @@
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>14</v>
       </c>
@@ -3490,13 +3506,13 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
         <v>28</v>
       </c>
@@ -3509,7 +3525,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
@@ -3533,7 +3549,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="26"/>
       <c r="G28" s="36"/>
       <c r="H28" s="38"/>
@@ -3542,7 +3558,7 @@
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
     </row>
-    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="26"/>
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
@@ -3551,7 +3567,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -3564,7 +3580,7 @@
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -3580,7 +3596,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía FEBRERO 2016</v>
@@ -3599,7 +3615,7 @@
       <c r="K32" s="46"/>
       <c r="L32" s="40"/>
     </row>
-    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3612,7 +3628,7 @@
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
     </row>
-    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
@@ -3636,7 +3652,7 @@
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
     </row>
-    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="49" t="s">
         <v>9</v>
       </c>
@@ -3669,7 +3685,7 @@
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
     </row>
-    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>12</v>
       </c>
@@ -3699,7 +3715,7 @@
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
     </row>
-    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="55" t="s">
         <v>14</v>
       </c>
@@ -3731,7 +3747,7 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3753,7 +3769,7 @@
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
     </row>
-    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3776,7 +3792,7 @@
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
     </row>
-    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
@@ -3804,7 +3820,7 @@
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
     </row>
-    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>9</v>
       </c>
@@ -3837,7 +3853,7 @@
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
     </row>
-    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
@@ -3859,7 +3875,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
     </row>
-    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>14</v>
       </c>
@@ -3891,7 +3907,7 @@
       <c r="L43" s="58"/>
       <c r="M43" s="58"/>
     </row>
-    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3905,7 +3921,7 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
     </row>
-    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
@@ -3930,7 +3946,7 @@
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
     </row>
-    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +3976,7 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
     </row>
-    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
@@ -3982,7 +3998,7 @@
       <c r="L47" s="63"/>
       <c r="M47" s="63"/>
     </row>
-    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>14</v>
       </c>
@@ -4014,7 +4030,7 @@
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
-    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4022,7 +4038,7 @@
       <c r="K49" s="63"/>
       <c r="L49" s="40"/>
     </row>
-    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="78" t="s">
         <v>27</v>
       </c>
@@ -4032,7 +4048,7 @@
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
     </row>
-    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +4064,7 @@
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>12</v>
       </c>
@@ -4064,7 +4080,7 @@
       <c r="K52" s="63"/>
       <c r="L52" s="40"/>
     </row>
-    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>14</v>
       </c>
@@ -4079,7 +4095,7 @@
       <c r="K53" s="63"/>
       <c r="L53" s="40"/>
     </row>
-    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4087,7 +4103,7 @@
       <c r="K54" s="63"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
@@ -4103,7 +4119,7 @@
       <c r="K55" s="65"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="33" t="s">
         <v>30</v>
       </c>
@@ -4128,13 +4144,13 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I57" s="38"/>
       <c r="J57" s="39"/>
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
     </row>
-    <row r="58" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F58" s="26"/>
       <c r="G58" s="36"/>
       <c r="H58" s="38"/>
@@ -4143,7 +4159,7 @@
       <c r="K58" s="40"/>
       <c r="L58" s="40"/>
     </row>
-    <row r="59" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="67"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -4156,7 +4172,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="44"/>
     </row>
-    <row r="60" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F60" s="26"/>
       <c r="G60" s="36"/>
       <c r="H60" s="38"/>
@@ -4164,12 +4180,12 @@
       <c r="J60" s="39"/>
       <c r="K60" s="40"/>
     </row>
-    <row r="61" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I61" s="38"/>
       <c r="J61" s="39"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -4181,7 +4197,7 @@
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -4196,7 +4212,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="str">
         <f>B32</f>
         <v>Consumo Energía FEBRERO 2016</v>
@@ -4214,7 +4230,7 @@
       </c>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4226,7 +4242,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="83" t="s">
         <v>1</v>
       </c>
@@ -4248,7 +4264,7 @@
       </c>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="49" t="s">
         <v>9</v>
       </c>
@@ -4276,7 +4292,7 @@
       </c>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="52" t="s">
         <v>12</v>
       </c>
@@ -4304,7 +4320,7 @@
       </c>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="55" t="s">
         <v>14</v>
       </c>
@@ -4334,7 +4350,7 @@
       </c>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -4354,7 +4370,7 @@
       </c>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -4375,7 +4391,7 @@
       </c>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
@@ -4401,7 +4417,7 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>9</v>
       </c>
@@ -4432,7 +4448,7 @@
       </c>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4467,7 @@
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="18" t="s">
         <v>14</v>
       </c>
@@ -4480,7 +4496,7 @@
         <v>254.03288239999762</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -4491,7 +4507,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
@@ -4513,7 +4529,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>9</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
         <v>12</v>
       </c>
@@ -4559,7 +4575,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -4588,13 +4604,13 @@
         <v>254.04038239999764</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="78" t="s">
         <v>27</v>
       </c>
@@ -4602,7 +4618,7 @@
       <c r="D82" s="82"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>9</v>
       </c>
@@ -4616,7 +4632,7 @@
       </c>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="17" t="s">
         <v>12</v>
       </c>
@@ -4630,7 +4646,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -4643,13 +4659,13 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
@@ -4663,7 +4679,7 @@
       <c r="G87" s="31"/>
       <c r="H87" s="32"/>
     </row>
-    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="33" t="s">
         <v>30</v>
       </c>
@@ -4686,26 +4702,26 @@
       <c r="I88" s="28"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="93" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="69"/>
     </row>
-    <row r="95" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="70"/>
       <c r="E95" s="71"/>
     </row>
-    <row r="96" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="70"/>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="70"/>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="70"/>
       <c r="E98" s="71"/>
     </row>
-    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
       <c r="E101" s="73"/>
@@ -4714,7 +4730,7 @@
       <c r="H101" s="72"/>
       <c r="K101" s="75"/>
     </row>
-    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="73"/>
@@ -4723,7 +4739,7 @@
       <c r="H102" s="72"/>
       <c r="K102" s="75"/>
     </row>
-    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" s="72"/>
       <c r="E103" s="73"/>
       <c r="F103" s="72"/>
@@ -4731,10 +4747,10 @@
       <c r="H103" s="72"/>
       <c r="K103" s="75"/>
     </row>
-    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K104" s="75"/>
     </row>
-    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J105" s="72"/>
       <c r="K105" s="75"/>
     </row>
@@ -4758,4 +4774,1913 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>33406.1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>32840.199999999997</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>565.90000000000146</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>262.18147000000067</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>22.979679999999984</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>49.387780000000006</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>23.350319999999989</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>166.4636900000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>15.75</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>0.11</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>0.11</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>0.11</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>1.0475000000000001</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>1.0475000000000001</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11:L13" si="0">(H11/4)</f>
+        <v>1.0475000000000001</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11:M13" si="1">(H11/4)</f>
+        <v>1.0475000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)-(H11))*0.18)</f>
+        <v>50.047464600000119</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)-(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>4.8500423999999969</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>9.6035004000000015</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>4.9167575999999977</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>30.677164200000124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>558.4</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.47</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13" si="3">(H13/4)</f>
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13" si="4">(H13/4)</f>
+        <v>1.1174999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>508.8</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>49.599999999999966</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H13)-(H11)</f>
+        <v>332.55893460000078</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I13)-(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>32.912222399999983</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>64.073780400000018</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>33.349577599999989</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>202.22335420000081</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>618</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>511.4</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>106.60000000000002</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>332.5989346000008</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>32.922222399999981</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>64.083780400000023</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>33.359577599999987</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>202.2333542000008</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>332.5989346000008</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>562</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>511.6</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>50.399999999999977</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>359.30000000000149</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>202.2333542000008</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía MARZO 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-ABR-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>33406.1</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>32840.199999999997</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>565.90000000000146</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>262.18147000000067</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>49.387780000000006</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>15.75</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>0.44</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>0.11</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="78" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>50.047464600000119</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>9.6035004000000015</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>558.4</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.47</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>508.8</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>49.599999999999966</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>332.55893460000078</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>64.073780400000018</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="78" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>0.06</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>618</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0.02</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>511.4</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>106.60000000000002</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>332.5989346000008</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>64.083780400000023</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>562</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>511.6</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>50.399999999999977</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="78" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>359.30000000000149</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>64.083780400000023</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía MARZO 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-ABR-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>33406.1</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>32840.199999999997</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>565.90000000000146</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>262.18147000000067</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>166.4636900000007</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>15.75</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>0.44</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>0.11</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="78" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>50.047464600000119</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>30.677164200000124</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>558.4</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.47</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>508.8</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>49.599999999999966</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>332.55893460000078</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>202.22335420000081</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="78" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>0.06</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>618</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>511.4</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>106.60000000000002</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>332.5989346000008</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>202.2333542000008</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>562</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>511.6</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(16/02/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>50.399999999999977</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="78" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>359.30000000000149</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>202.2333542000008</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
     <sheet name="FEB 16" sheetId="2" r:id="rId2"/>
     <sheet name="MAR 16" sheetId="3" r:id="rId3"/>
+    <sheet name="ABR 16" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="49">
   <si>
     <t>Suministro 1395500</t>
   </si>
@@ -164,6 +165,15 @@
   </si>
   <si>
     <t>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</t>
+  </si>
+  <si>
+    <t>Consumo Energía ABRIL 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-MAY-2016</t>
+  </si>
+  <si>
+    <t>(15/04/16)</t>
   </si>
 </sst>
 </file>
@@ -719,6 +729,15 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,15 +751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,11 +1094,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -1286,11 +1296,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1437,11 +1447,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -1581,11 +1591,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -1634,11 +1644,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -1750,11 +1760,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -1914,12 +1924,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="78" t="str">
+      <c r="B40" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -2043,12 +2053,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="78" t="str">
+      <c r="B45" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -2160,11 +2170,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -2225,12 +2235,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="78" t="str">
+      <c r="B55" s="81" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -2364,11 +2374,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -2513,12 +2523,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="78" t="str">
+      <c r="B72" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -2629,12 +2639,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="78" t="str">
+      <c r="B77" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -2732,11 +2742,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="82"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2787,12 +2797,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="78" t="str">
+      <c r="B87" s="81" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -2877,12 +2887,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -2892,6 +2896,12 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -2963,11 +2973,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -3165,11 +3175,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -3316,11 +3326,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -3460,11 +3470,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -3513,11 +3523,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -3629,11 +3639,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -3793,12 +3803,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="78" t="str">
+      <c r="B40" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -3922,12 +3932,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="78" t="str">
+      <c r="B45" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -4039,11 +4049,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -4104,12 +4114,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="78" t="str">
+      <c r="B55" s="81" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -4243,11 +4253,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -4392,12 +4402,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="78" t="str">
+      <c r="B72" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -4508,12 +4518,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="78" t="str">
+      <c r="B77" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -4611,11 +4621,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="82"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -4666,12 +4676,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="78" t="str">
+      <c r="B87" s="81" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -4756,12 +4766,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -4771,6 +4775,12 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4780,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4842,11 +4852,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -5065,20 +5075,20 @@
         <v>1.0475000000000001</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" ref="L11:L13" si="0">(H11/4)</f>
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
         <v>1.0475000000000001</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" ref="M11:M13" si="1">(H11/4)</f>
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
         <v>1.0475000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -5225,11 +5235,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -5369,11 +5379,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5422,11 +5432,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -5538,11 +5548,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -5702,12 +5712,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="str">
+      <c r="B41" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -5831,12 +5841,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="78" t="str">
+      <c r="B46" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -5948,11 +5958,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -6013,12 +6023,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="78" t="str">
+      <c r="B56" s="81" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -6152,11 +6162,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -6301,12 +6311,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="78" t="str">
+      <c r="B73" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -6417,12 +6427,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="78" t="str">
+      <c r="B78" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -6520,11 +6530,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="82"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
@@ -6575,12 +6585,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="78" t="str">
+      <c r="B88" s="81" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -6665,12 +6675,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B88:D88"/>
@@ -6680,6 +6684,1920 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>33406.1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>558.70000000000437</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.4582</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>255.99634000000199</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>28.683320000000009</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>50.081259999999979</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>23.8264</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>153.40536000000202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>15.75</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>0.1225</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>0.1225</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>0.1225</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)-(H11))*0.18)</f>
+        <v>49.699141200000355</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)-(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.0679476000000019</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9195767999999962</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>5.193702</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>28.517914800000362</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>621</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.41</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.1025</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.1025</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13" si="3">(H13/4)</f>
+        <v>1.1025</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13" si="4">(H13/4)</f>
+        <v>1.1025</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>558.4</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>62.600000000000023</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H13)-(H11)</f>
+        <v>330.21548120000233</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I13)-(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>40.881267600000015</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>66.130836799999983</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>35.150101999999997</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>188.05327480000238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>727.3</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>618</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>109.29999999999995</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>330.19548120000229</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>40.87626760000002</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>66.125836799999973</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>35.145102000000001</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>188.04827480000239</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>330.1954812000024</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>614</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>562</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>52</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>334.80000000000439</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>188.04827480000239</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía ABRIL 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-MAY-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.625</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>33406.1</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>558.70000000000437</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.4582</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>255.99634000000199</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>50.081259999999979</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>15.75</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>0.49</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>0.1225</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="81" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>49.699141200000355</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>9.9195767999999962</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>621</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.41</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1025</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>558.4</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>62.600000000000023</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>330.21548120000233</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>66.130836799999983</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="81" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>0.02</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>727.3</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>618</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>109.29999999999995</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>330.19548120000229</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>66.125836799999973</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>614</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>562</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>52</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="81" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>334.80000000000439</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>66.125836799999973</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía ABRIL 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-MAY-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.5</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.625</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>33406.1</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>558.70000000000437</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.4582</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>255.99634000000199</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>153.40536000000202</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>15.75</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>3.9375</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>0.49</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>0.1225</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="81" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>49.699141200000355</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>28.517914800000362</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>621</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.41</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.1025</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>558.4</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>62.600000000000023</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>330.21548120000233</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>188.05327480000238</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="81" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>727.3</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0.04</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>618</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>109.29999999999995</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>330.19548120000229</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>188.04827480000239</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>614</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>562</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(16/03/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>52</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="81" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>334.80000000000439</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>188.04827480000239</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\Abel\PAGOS\Luz\SUM 1395500\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
     <sheet name="FEB 16" sheetId="2" r:id="rId2"/>
     <sheet name="MAR 16" sheetId="3" r:id="rId3"/>
     <sheet name="ABR 16" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="53">
   <si>
     <t>Suministro 1395500</t>
   </si>
@@ -174,6 +170,18 @@
   </si>
   <si>
     <t>(15/04/16)</t>
+  </si>
+  <si>
+    <t>Consumo Energía MAYO 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 03-JUN-2016</t>
+  </si>
+  <si>
+    <t>(17/05/16)</t>
+  </si>
+  <si>
+    <t>Nota de Débito Res. N° 012-2016-OS/CD</t>
   </si>
 </sst>
 </file>
@@ -729,15 +737,6 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,6 +750,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,7 +856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1037,19 +1045,19 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="0.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -1066,7 +1074,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1093,12 +1101,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -1159,7 +1167,7 @@
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1243,7 @@
         <v>185.50015000000133</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1265,7 +1273,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1296,11 +1304,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1331,7 +1339,7 @@
         <v>34.272477000000237</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1447,11 +1455,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -1590,12 +1598,12 @@
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -1644,11 +1652,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -1759,12 +1767,12 @@
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
     </row>
-    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="78" t="s">
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -1783,7 +1791,7 @@
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
     </row>
-    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="49" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1824,7 @@
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
     </row>
-    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1854,7 @@
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
     </row>
-    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="s">
         <v>14</v>
       </c>
@@ -1878,7 +1886,7 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1900,7 +1908,7 @@
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
     </row>
-    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1923,13 +1931,13 @@
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
     </row>
-    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="81" t="str">
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -1951,7 +1959,7 @@
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
     </row>
-    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +1992,7 @@
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
     </row>
-    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2014,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
     </row>
-    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2046,7 @@
       <c r="L43" s="58"/>
       <c r="M43" s="58"/>
     </row>
-    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2052,13 +2060,13 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
     </row>
-    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="81" t="str">
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -2077,7 +2085,7 @@
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
     </row>
-    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>9</v>
       </c>
@@ -2107,7 +2115,7 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
     </row>
-    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
@@ -2129,7 +2137,7 @@
       <c r="L47" s="63"/>
       <c r="M47" s="63"/>
     </row>
-    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2169,7 @@
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2169,17 +2177,17 @@
       <c r="K49" s="63"/>
       <c r="L49" s="40"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="81" t="s">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2203,7 @@
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2219,7 @@
       <c r="K52" s="63"/>
       <c r="L52" s="40"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>14</v>
       </c>
@@ -2226,7 +2234,7 @@
       <c r="K53" s="63"/>
       <c r="L53" s="40"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2234,13 +2242,13 @@
       <c r="K54" s="63"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="81" t="str">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -2250,7 +2258,7 @@
       <c r="K55" s="65"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="33" t="s">
         <v>30</v>
       </c>
@@ -2275,13 +2283,13 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I57" s="38"/>
       <c r="J57" s="39"/>
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F58" s="26"/>
       <c r="G58" s="36"/>
       <c r="H58" s="38"/>
@@ -2290,7 +2298,7 @@
       <c r="K58" s="40"/>
       <c r="L58" s="40"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="67"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -2303,7 +2311,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="44"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F60" s="26"/>
       <c r="G60" s="36"/>
       <c r="H60" s="38"/>
@@ -2311,12 +2319,12 @@
       <c r="J60" s="39"/>
       <c r="K60" s="40"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I61" s="38"/>
       <c r="J61" s="39"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -2328,7 +2336,7 @@
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="2:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -2343,7 +2351,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="2:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>B32</f>
         <v>Consumo Energía ENERO 2016</v>
@@ -2361,7 +2369,7 @@
       </c>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2373,12 +2381,12 @@
       <c r="J65" s="3"/>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="78" t="s">
+    <row r="66" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -2395,7 +2403,7 @@
       </c>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="49" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2431,7 @@
       </c>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="52" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2459,7 @@
       </c>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="55" t="s">
         <v>14</v>
       </c>
@@ -2481,7 +2489,7 @@
       </c>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2501,7 +2509,7 @@
       </c>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2522,13 +2530,13 @@
       </c>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="str">
+    <row r="72" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -2548,7 +2556,7 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +2587,7 @@
       </c>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="17" t="s">
         <v>12</v>
       </c>
@@ -2598,7 +2606,7 @@
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2635,7 @@
         <v>225.73762700000157</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2638,13 +2646,13 @@
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="81" t="str">
+    <row r="77" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -2660,7 +2668,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>9</v>
       </c>
@@ -2687,7 +2695,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="17" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2714,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -2735,21 +2743,21 @@
         <v>225.74762700000159</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="81" t="s">
+    <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="82"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>9</v>
       </c>
@@ -2763,7 +2771,7 @@
       </c>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="17" t="s">
         <v>12</v>
       </c>
@@ -2777,7 +2785,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -2790,19 +2798,19 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="81" t="str">
+    <row r="87" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -2810,7 +2818,7 @@
       <c r="G87" s="31"/>
       <c r="H87" s="32"/>
     </row>
-    <row r="88" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="33" t="s">
         <v>30</v>
       </c>
@@ -2833,26 +2841,26 @@
       <c r="I88" s="28"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="69"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="70"/>
       <c r="E95" s="71"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="70"/>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="70"/>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="70"/>
       <c r="E98" s="71"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
       <c r="E101" s="73"/>
@@ -2861,7 +2869,7 @@
       <c r="H101" s="72"/>
       <c r="K101" s="75"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="73"/>
@@ -2870,7 +2878,7 @@
       <c r="H102" s="72"/>
       <c r="K102" s="75"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D103" s="72"/>
       <c r="E103" s="73"/>
       <c r="F103" s="72"/>
@@ -2878,15 +2886,21 @@
       <c r="H103" s="72"/>
       <c r="K103" s="75"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K104" s="75"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J105" s="72"/>
       <c r="K105" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -2896,12 +2910,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -2912,23 +2920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O105"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="0.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -2945,7 +2953,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
@@ -2972,12 +2980,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -3038,7 +3046,7 @@
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
@@ -3074,7 +3082,7 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -3114,7 +3122,7 @@
         <v>209.31417999999798</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -3144,7 +3152,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3175,11 +3183,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -3210,7 +3218,7 @@
         <v>38.566202399999632</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
@@ -3326,11 +3334,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -3469,12 +3477,12 @@
       <c r="D20" s="6"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -3523,11 +3531,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -3638,12 +3646,12 @@
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
     </row>
-    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="78" t="s">
+    <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -3662,7 +3670,7 @@
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
     </row>
-    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="49" t="s">
         <v>9</v>
       </c>
@@ -3695,7 +3703,7 @@
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
     </row>
-    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +3733,7 @@
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
     </row>
-    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +3765,7 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3779,7 +3787,7 @@
       <c r="L38" s="51"/>
       <c r="M38" s="51"/>
     </row>
-    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3802,13 +3810,13 @@
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
     </row>
-    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="81" t="str">
+    <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -3830,7 +3838,7 @@
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
     </row>
-    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3871,7 @@
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
     </row>
-    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
@@ -3885,7 +3893,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
     </row>
-    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +3925,7 @@
       <c r="L43" s="58"/>
       <c r="M43" s="58"/>
     </row>
-    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3931,13 +3939,13 @@
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
     </row>
-    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="81" t="str">
+    <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -3956,7 +3964,7 @@
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
     </row>
-    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +3994,7 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
     </row>
-    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
@@ -4008,7 +4016,7 @@
       <c r="L47" s="63"/>
       <c r="M47" s="63"/>
     </row>
-    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>14</v>
       </c>
@@ -4040,7 +4048,7 @@
       <c r="L48" s="64"/>
       <c r="M48" s="64"/>
     </row>
-    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4048,17 +4056,17 @@
       <c r="K49" s="63"/>
       <c r="L49" s="40"/>
     </row>
-    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="81" t="s">
+    <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
     </row>
-    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4082,7 @@
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>12</v>
       </c>
@@ -4090,7 +4098,7 @@
       <c r="K52" s="63"/>
       <c r="L52" s="40"/>
     </row>
-    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
         <v>14</v>
       </c>
@@ -4105,7 +4113,7 @@
       <c r="K53" s="63"/>
       <c r="L53" s="40"/>
     </row>
-    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -4113,13 +4121,13 @@
       <c r="K54" s="63"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="81" t="str">
+    <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -4129,7 +4137,7 @@
       <c r="K55" s="65"/>
       <c r="L55" s="65"/>
     </row>
-    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="33" t="s">
         <v>30</v>
       </c>
@@ -4154,13 +4162,13 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57" s="38"/>
       <c r="J57" s="39"/>
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
     </row>
-    <row r="58" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="26"/>
       <c r="G58" s="36"/>
       <c r="H58" s="38"/>
@@ -4169,7 +4177,7 @@
       <c r="K58" s="40"/>
       <c r="L58" s="40"/>
     </row>
-    <row r="59" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="67"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
@@ -4182,7 +4190,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="44"/>
     </row>
-    <row r="60" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="26"/>
       <c r="G60" s="36"/>
       <c r="H60" s="38"/>
@@ -4190,12 +4198,12 @@
       <c r="J60" s="39"/>
       <c r="K60" s="40"/>
     </row>
-    <row r="61" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61" s="38"/>
       <c r="J61" s="39"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -4207,7 +4215,7 @@
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -4222,7 +4230,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>B32</f>
         <v>Consumo Energía FEBRERO 2016</v>
@@ -4240,7 +4248,7 @@
       </c>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4252,12 +4260,12 @@
       <c r="J65" s="3"/>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="78" t="s">
+    <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -4274,7 +4282,7 @@
       </c>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="49" t="s">
         <v>9</v>
       </c>
@@ -4302,7 +4310,7 @@
       </c>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="52" t="s">
         <v>12</v>
       </c>
@@ -4330,7 +4338,7 @@
       </c>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="55" t="s">
         <v>14</v>
       </c>
@@ -4360,7 +4368,7 @@
       </c>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -4380,7 +4388,7 @@
       </c>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -4401,13 +4409,13 @@
       </c>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="81" t="str">
+    <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -4427,7 +4435,7 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>9</v>
       </c>
@@ -4458,7 +4466,7 @@
       </c>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="17" t="s">
         <v>12</v>
       </c>
@@ -4477,7 +4485,7 @@
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="18" t="s">
         <v>14</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>254.03288239999762</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -4517,13 +4525,13 @@
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="81" t="str">
+    <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -4539,7 +4547,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>9</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="17" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4593,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="18" t="s">
         <v>14</v>
       </c>
@@ -4614,21 +4622,21 @@
         <v>254.04038239999764</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="81" t="s">
+    <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="82"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>9</v>
       </c>
@@ -4642,7 +4650,7 @@
       </c>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="17" t="s">
         <v>12</v>
       </c>
@@ -4656,7 +4664,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
         <v>14</v>
       </c>
@@ -4669,19 +4677,19 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="81" t="str">
+    <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -4689,7 +4697,7 @@
       <c r="G87" s="31"/>
       <c r="H87" s="32"/>
     </row>
-    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="33" t="s">
         <v>30</v>
       </c>
@@ -4712,26 +4720,26 @@
       <c r="I88" s="28"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="93" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="69"/>
     </row>
-    <row r="95" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="70"/>
       <c r="E95" s="71"/>
     </row>
-    <row r="96" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="70"/>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="70"/>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="70"/>
       <c r="E98" s="71"/>
     </row>
-    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
       <c r="E101" s="73"/>
@@ -4740,7 +4748,7 @@
       <c r="H101" s="72"/>
       <c r="K101" s="75"/>
     </row>
-    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="73"/>
@@ -4749,7 +4757,7 @@
       <c r="H102" s="72"/>
       <c r="K102" s="75"/>
     </row>
-    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="72"/>
       <c r="E103" s="73"/>
       <c r="F103" s="72"/>
@@ -4757,15 +4765,21 @@
       <c r="H103" s="72"/>
       <c r="K103" s="75"/>
     </row>
-    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K104" s="75"/>
     </row>
-    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J105" s="72"/>
       <c r="K105" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -4775,12 +4789,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4794,19 +4802,19 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="0.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4824,7 +4832,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -4851,12 +4859,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -4917,7 +4925,7 @@
         <v>0.62250000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -4993,7 +5001,7 @@
         <v>166.4636900000007</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5023,7 +5031,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5053,7 +5061,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5084,11 +5092,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -5119,7 +5127,7 @@
         <v>30.677164200000124</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -5235,11 +5243,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -5378,12 +5386,12 @@
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="81" t="s">
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5432,11 +5440,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -5534,7 +5542,7 @@
       <c r="K33" s="46"/>
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5547,12 +5555,12 @@
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="78" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -5571,7 +5579,7 @@
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="49" t="s">
         <v>9</v>
       </c>
@@ -5604,7 +5612,7 @@
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="52" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +5642,7 @@
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="s">
         <v>14</v>
       </c>
@@ -5666,7 +5674,7 @@
       <c r="L38" s="57"/>
       <c r="M38" s="57"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5688,7 +5696,7 @@
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -5711,13 +5719,13 @@
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="81" t="str">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -5739,7 +5747,7 @@
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>9</v>
       </c>
@@ -5772,7 +5780,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>12</v>
       </c>
@@ -5794,7 +5802,7 @@
       <c r="L43" s="51"/>
       <c r="M43" s="51"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
@@ -5826,7 +5834,7 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -5840,13 +5848,13 @@
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="81" t="str">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -5865,7 +5873,7 @@
       <c r="L46" s="58"/>
       <c r="M46" s="58"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
@@ -5895,7 +5903,7 @@
       <c r="L47" s="62"/>
       <c r="M47" s="62"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>12</v>
       </c>
@@ -5917,7 +5925,7 @@
       <c r="L48" s="63"/>
       <c r="M48" s="63"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>14</v>
       </c>
@@ -5949,7 +5957,7 @@
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -5957,17 +5965,17 @@
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="81" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>9</v>
       </c>
@@ -5983,7 +5991,7 @@
       <c r="K52" s="63"/>
       <c r="L52" s="40"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>12</v>
       </c>
@@ -5999,7 +6007,7 @@
       <c r="K53" s="63"/>
       <c r="L53" s="40"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>14</v>
       </c>
@@ -6014,7 +6022,7 @@
       <c r="K54" s="63"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -6022,13 +6030,13 @@
       <c r="K55" s="63"/>
       <c r="L55" s="40"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="81" t="str">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="78" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -6038,7 +6046,7 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="33" t="s">
         <v>30</v>
       </c>
@@ -6063,13 +6071,13 @@
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I58" s="38"/>
       <c r="J58" s="39"/>
       <c r="K58" s="65"/>
       <c r="L58" s="65"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F59" s="26"/>
       <c r="G59" s="36"/>
       <c r="H59" s="38"/>
@@ -6078,7 +6086,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="67"/>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
@@ -6091,7 +6099,7 @@
       <c r="K60" s="40"/>
       <c r="L60" s="44"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F61" s="26"/>
       <c r="G61" s="36"/>
       <c r="H61" s="38"/>
@@ -6099,12 +6107,12 @@
       <c r="J61" s="39"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I62" s="38"/>
       <c r="J62" s="39"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
@@ -6116,7 +6124,7 @@
       <c r="J63" s="40"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -6131,7 +6139,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f>B33</f>
         <v>Consumo Energía MARZO 2016</v>
@@ -6149,7 +6157,7 @@
       </c>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6161,12 +6169,12 @@
       <c r="J66" s="3"/>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="78" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -6183,7 +6191,7 @@
       </c>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="49" t="s">
         <v>9</v>
       </c>
@@ -6211,7 +6219,7 @@
       </c>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="52" t="s">
         <v>12</v>
       </c>
@@ -6239,7 +6247,7 @@
       </c>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="55" t="s">
         <v>14</v>
       </c>
@@ -6269,7 +6277,7 @@
       </c>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -6289,7 +6297,7 @@
       </c>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -6310,13 +6318,13 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="81" t="str">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -6336,7 +6344,7 @@
       </c>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>9</v>
       </c>
@@ -6367,7 +6375,7 @@
       </c>
       <c r="K74" s="40"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="17" t="s">
         <v>12</v>
       </c>
@@ -6386,7 +6394,7 @@
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>14</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>202.22335420000081</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -6426,13 +6434,13 @@
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="81" t="str">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -6448,7 +6456,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>9</v>
       </c>
@@ -6475,7 +6483,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
         <v>12</v>
       </c>
@@ -6494,7 +6502,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>14</v>
       </c>
@@ -6523,21 +6531,21 @@
         <v>202.2333542000008</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>9</v>
       </c>
@@ -6551,7 +6559,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="17" t="s">
         <v>12</v>
       </c>
@@ -6565,7 +6573,7 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>14</v>
       </c>
@@ -6578,19 +6586,19 @@
       </c>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="81" t="str">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="78" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -6598,7 +6606,7 @@
       <c r="G88" s="31"/>
       <c r="H88" s="32"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="33" t="s">
         <v>30</v>
       </c>
@@ -6621,26 +6629,26 @@
       <c r="I89" s="28"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="69"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="70"/>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="70"/>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="70"/>
       <c r="E98" s="71"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="70"/>
       <c r="E99" s="71"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="73"/>
@@ -6649,7 +6657,7 @@
       <c r="H102" s="72"/>
       <c r="K102" s="75"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="72"/>
       <c r="D103" s="72"/>
       <c r="E103" s="73"/>
@@ -6658,7 +6666,7 @@
       <c r="H103" s="72"/>
       <c r="K103" s="75"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D104" s="72"/>
       <c r="E104" s="73"/>
       <c r="F104" s="72"/>
@@ -6666,15 +6674,21 @@
       <c r="H104" s="72"/>
       <c r="K104" s="75"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K105" s="75"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J106" s="72"/>
       <c r="K106" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B88:D88"/>
@@ -6684,12 +6698,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6699,26 +6707,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="0.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6732,7 +6740,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
@@ -6747,7 +6755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -6759,12 +6767,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -6789,7 +6797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
@@ -6825,7 +6833,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>0.34250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
@@ -6901,7 +6909,7 @@
         <v>153.40536000000202</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -6931,7 +6939,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -6961,7 +6969,7 @@
         <v>0.1225</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -6991,12 +6999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+    <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -7027,7 +7035,7 @@
         <v>28.517914800000362</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -7066,7 +7074,7 @@
         <v>1.1025</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>12</v>
       </c>
@@ -7087,7 +7095,7 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>188.05327480000238</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -7142,12 +7150,12 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+    <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -7174,7 +7182,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
@@ -7211,7 +7219,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
@@ -7232,7 +7240,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
@@ -7280,21 +7288,21 @@
         <v>330.1954812000024</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="81" t="s">
+    <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
@@ -7307,7 +7315,7 @@
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
@@ -7320,7 +7328,7 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>14</v>
       </c>
@@ -7333,18 +7341,18 @@
       </c>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
+    <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -7352,7 +7360,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="2:15" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>30</v>
       </c>
@@ -7423,7 +7431,7 @@
       <c r="K32" s="40"/>
       <c r="L32" s="44"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía ABRIL 2016</v>
@@ -7442,7 +7450,7 @@
       <c r="K33" s="46"/>
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7455,12 +7463,12 @@
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="78" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -7479,7 +7487,7 @@
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="49" t="s">
         <v>9</v>
       </c>
@@ -7512,7 +7520,7 @@
       <c r="L36" s="51"/>
       <c r="M36" s="51"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="52" t="s">
         <v>12</v>
       </c>
@@ -7542,7 +7550,7 @@
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="s">
         <v>14</v>
       </c>
@@ -7574,7 +7582,7 @@
       <c r="L38" s="57"/>
       <c r="M38" s="57"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -7596,7 +7604,7 @@
       <c r="L39" s="51"/>
       <c r="M39" s="51"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -7619,13 +7627,13 @@
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="81" t="str">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -7647,7 +7655,7 @@
       <c r="L41" s="58"/>
       <c r="M41" s="58"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>9</v>
       </c>
@@ -7680,7 +7688,7 @@
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>12</v>
       </c>
@@ -7702,7 +7710,7 @@
       <c r="L43" s="51"/>
       <c r="M43" s="51"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
@@ -7734,7 +7742,7 @@
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -7748,13 +7756,13 @@
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="81" t="str">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -7773,7 +7781,7 @@
       <c r="L46" s="58"/>
       <c r="M46" s="58"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
@@ -7803,7 +7811,7 @@
       <c r="L47" s="62"/>
       <c r="M47" s="62"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="17" t="s">
         <v>12</v>
       </c>
@@ -7825,7 +7833,7 @@
       <c r="L48" s="63"/>
       <c r="M48" s="63"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>14</v>
       </c>
@@ -7857,7 +7865,7 @@
       <c r="L49" s="64"/>
       <c r="M49" s="64"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -7865,17 +7873,17 @@
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="81" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>9</v>
       </c>
@@ -7891,7 +7899,7 @@
       <c r="K52" s="63"/>
       <c r="L52" s="40"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>12</v>
       </c>
@@ -7907,7 +7915,7 @@
       <c r="K53" s="63"/>
       <c r="L53" s="40"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>14</v>
       </c>
@@ -7922,7 +7930,7 @@
       <c r="K54" s="63"/>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -7930,13 +7938,13 @@
       <c r="K55" s="63"/>
       <c r="L55" s="40"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="81" t="str">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="78" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -7946,7 +7954,7 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="33" t="s">
         <v>30</v>
       </c>
@@ -7971,13 +7979,13 @@
       <c r="K57" s="65"/>
       <c r="L57" s="65"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I58" s="38"/>
       <c r="J58" s="39"/>
       <c r="K58" s="65"/>
       <c r="L58" s="65"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F59" s="26"/>
       <c r="G59" s="36"/>
       <c r="H59" s="38"/>
@@ -7986,7 +7994,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="67"/>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
@@ -7999,7 +8007,7 @@
       <c r="K60" s="40"/>
       <c r="L60" s="44"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F61" s="26"/>
       <c r="G61" s="36"/>
       <c r="H61" s="38"/>
@@ -8007,12 +8015,12 @@
       <c r="J61" s="39"/>
       <c r="K61" s="40"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I62" s="38"/>
       <c r="J62" s="39"/>
       <c r="K62" s="40"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
@@ -8024,7 +8032,7 @@
       <c r="J63" s="40"/>
       <c r="K63" s="40"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -8039,7 +8047,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="40"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f>B33</f>
         <v>Consumo Energía ABRIL 2016</v>
@@ -8057,7 +8065,7 @@
       </c>
       <c r="K65" s="40"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -8069,12 +8077,12 @@
       <c r="J66" s="3"/>
       <c r="K66" s="40"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="78" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -8091,7 +8099,7 @@
       </c>
       <c r="K67" s="40"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="49" t="s">
         <v>9</v>
       </c>
@@ -8119,7 +8127,7 @@
       </c>
       <c r="K68" s="40"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="52" t="s">
         <v>12</v>
       </c>
@@ -8147,7 +8155,7 @@
       </c>
       <c r="K69" s="40"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="55" t="s">
         <v>14</v>
       </c>
@@ -8177,7 +8185,7 @@
       </c>
       <c r="K70" s="40"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -8197,7 +8205,7 @@
       </c>
       <c r="K71" s="40"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -8218,13 +8226,13 @@
       </c>
       <c r="K72" s="40"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="81" t="str">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -8244,7 +8252,7 @@
       </c>
       <c r="K73" s="40"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>9</v>
       </c>
@@ -8275,7 +8283,7 @@
       </c>
       <c r="K74" s="40"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="17" t="s">
         <v>12</v>
       </c>
@@ -8294,7 +8302,7 @@
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>14</v>
       </c>
@@ -8323,7 +8331,7 @@
         <v>188.05327480000238</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -8334,13 +8342,13 @@
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="81" t="str">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -8356,7 +8364,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>9</v>
       </c>
@@ -8383,7 +8391,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
         <v>12</v>
       </c>
@@ -8402,7 +8410,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="18" t="s">
         <v>14</v>
       </c>
@@ -8431,21 +8439,21 @@
         <v>188.04827480000239</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="81" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>9</v>
       </c>
@@ -8459,7 +8467,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="17" t="s">
         <v>12</v>
       </c>
@@ -8473,7 +8481,7 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="18" t="s">
         <v>14</v>
       </c>
@@ -8486,19 +8494,19 @@
       </c>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="81" t="str">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="78" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -8506,7 +8514,7 @@
       <c r="G88" s="31"/>
       <c r="H88" s="32"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="33" t="s">
         <v>30</v>
       </c>
@@ -8529,26 +8537,26 @@
       <c r="I89" s="28"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="69"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="70"/>
       <c r="E96" s="71"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="70"/>
       <c r="E97" s="71"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="70"/>
       <c r="E98" s="71"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="70"/>
       <c r="E99" s="71"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C102" s="72"/>
       <c r="D102" s="72"/>
       <c r="E102" s="73"/>
@@ -8557,7 +8565,7 @@
       <c r="H102" s="72"/>
       <c r="K102" s="75"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="72"/>
       <c r="D103" s="72"/>
       <c r="E103" s="73"/>
@@ -8566,7 +8574,7 @@
       <c r="H103" s="72"/>
       <c r="K103" s="75"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D104" s="72"/>
       <c r="E104" s="73"/>
       <c r="F104" s="72"/>
@@ -8574,10 +8582,1918 @@
       <c r="H104" s="72"/>
       <c r="K104" s="75"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K105" s="75"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>34534.5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>569.69999999999709</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>251.92133999999871</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>29.052540000000018</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>40.947720000000011</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>24.586320000000008</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>157.33475999999865</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>1.06</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)+(H11))*0.18)</f>
+        <v>49.86924119999977</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.3603072000000038</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>8.5014396000000012</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>5.5563876000000008</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>29.451106799999756</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>686.7</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.125</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.125</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13" si="3">(H13/4)</f>
+        <v>1.125</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13" si="4">(H13/4)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>621</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>65.700000000000045</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H13)+(H11)</f>
+        <v>331.42058119999848</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I13)+(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>42.820347200000022</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>56.856659600000015</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>37.550207600000007</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>194.19336679999842</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>4.88</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>819.9</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>727.3</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>92.600000000000023</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>336.30058119999848</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>44.040347200000021</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>58.076659600000013</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>38.770207600000006</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>195.41336679999841</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>336.30058119999848</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>669.6</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>614</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>55.600000000000023</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>355.799999999997</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>195.41336679999841</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía MAYO 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-JUN-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>34534.5</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>569.69999999999709</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>251.92133999999871</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>40.947720000000011</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>1.06</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="78" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>49.86924119999977</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>8.5014396000000012</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>686.7</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.125</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>621</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>65.700000000000045</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>331.42058119999848</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>56.856659600000015</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="78" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>4.88</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>1.22</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>819.9</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>727.3</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>92.600000000000023</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>336.30058119999848</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>58.076659600000013</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>669.6</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>614</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>55.600000000000023</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="78" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>355.799999999997</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>58.076659600000013</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía MAYO 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-JUN-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>34534.5</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>569.69999999999709</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>251.92133999999871</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>157.33475999999865</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>1.06</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="78" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>49.86924119999977</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>29.451106799999756</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>686.7</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.5</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.125</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>621</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>65.700000000000045</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>331.42058119999848</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>194.19336679999842</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="78" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>4.88</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>819.9</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>727.3</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>92.600000000000023</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>336.30058119999848</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>195.41336679999841</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>669.6</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>614</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>55.600000000000023</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="78" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>355.799999999997</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>195.41336679999841</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J106" s="72"/>
       <c r="K106" s="75"/>
     </row>

--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disco_D\Documentos\Pagos\Luz\SUM 1395500\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
     <sheet name="FEB 16" sheetId="2" r:id="rId2"/>
     <sheet name="MAR 16" sheetId="3" r:id="rId3"/>
     <sheet name="ABR 16" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
+    <sheet name="MAY 16" sheetId="5" r:id="rId5"/>
+    <sheet name="JUN 16" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="57">
   <si>
     <t>Suministro 1395500</t>
   </si>
@@ -182,6 +188,18 @@
   </si>
   <si>
     <t>Nota de Débito Res. N° 012-2016-OS/CD</t>
+  </si>
+  <si>
+    <t>Consumo Energía JUNIO 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 05-JUL-2016</t>
+  </si>
+  <si>
+    <t>(16/06/16)</t>
+  </si>
+  <si>
+    <t>Afianzamiento Seguridad Energética</t>
   </si>
 </sst>
 </file>
@@ -737,6 +755,15 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,15 +777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,11 +1120,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -1304,11 +1322,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1455,11 +1473,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -1599,11 +1617,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -1651,12 +1669,12 @@
       <c r="D25" s="6"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -1664,7 +1682,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1706,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="26"/>
       <c r="G28" s="36"/>
       <c r="H28" s="38"/>
@@ -1697,7 +1715,7 @@
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
     </row>
-    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="26"/>
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
@@ -1706,7 +1724,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -1719,7 +1737,7 @@
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -1735,7 +1753,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía ENERO 2016</v>
@@ -1754,7 +1772,7 @@
       <c r="K32" s="46"/>
       <c r="L32" s="40"/>
     </row>
-    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1768,11 +1786,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -1932,12 +1950,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="78" t="str">
+      <c r="B40" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -2061,12 +2079,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78" t="str">
+      <c r="B45" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -2178,11 +2196,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -2243,12 +2261,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="78" t="str">
+      <c r="B55" s="81" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -2382,11 +2400,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -2531,12 +2549,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="78" t="str">
+      <c r="B72" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -2647,12 +2665,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="78" t="str">
+      <c r="B77" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -2750,11 +2768,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="82"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,12 +2823,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="78" t="str">
+      <c r="B87" s="81" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -2895,12 +2913,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -2910,6 +2922,12 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -2981,11 +2999,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -3183,11 +3201,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -3334,11 +3352,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -3478,11 +3496,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -3531,11 +3549,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -3543,7 +3561,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3585,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="26"/>
       <c r="G28" s="36"/>
       <c r="H28" s="38"/>
@@ -3576,7 +3594,7 @@
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
     </row>
-    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="26"/>
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
@@ -3585,7 +3603,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -3598,7 +3616,7 @@
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -3614,7 +3632,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="44"/>
     </row>
-    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía FEBRERO 2016</v>
@@ -3633,7 +3651,7 @@
       <c r="K32" s="46"/>
       <c r="L32" s="40"/>
     </row>
-    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3647,11 +3665,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -3811,12 +3829,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="78" t="str">
+      <c r="B40" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -3940,12 +3958,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78" t="str">
+      <c r="B45" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -4057,11 +4075,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="78" t="s">
+      <c r="B50" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="82"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -4122,12 +4140,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="78" t="str">
+      <c r="B55" s="81" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -4261,11 +4279,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="D66" s="85"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -4410,12 +4428,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="78" t="str">
+      <c r="B72" s="81" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -4526,12 +4544,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="78" t="str">
+      <c r="B77" s="81" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -4629,11 +4647,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="78" t="s">
+      <c r="B82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="82"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -4684,12 +4702,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="78" t="str">
+      <c r="B87" s="81" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="79"/>
-      <c r="D87" s="80"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -4774,12 +4792,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -4789,6 +4801,12 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4860,11 +4878,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -5092,11 +5110,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -5243,11 +5261,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -5387,11 +5405,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5439,12 +5457,12 @@
       <c r="D26" s="6"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -5452,7 +5470,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>30</v>
       </c>
@@ -5476,7 +5494,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="26"/>
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
@@ -5485,7 +5503,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="26"/>
       <c r="G30" s="36"/>
       <c r="H30" s="38"/>
@@ -5494,7 +5512,7 @@
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
     </row>
-    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -5507,7 +5525,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
     </row>
-    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -5523,7 +5541,7 @@
       <c r="K32" s="40"/>
       <c r="L32" s="44"/>
     </row>
-    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <f>B3</f>
         <v>Consumo Energía MARZO 2016</v>
@@ -5542,7 +5560,7 @@
       <c r="K33" s="46"/>
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5556,11 +5574,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -5720,12 +5738,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="str">
+      <c r="B41" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -5849,12 +5867,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="78" t="str">
+      <c r="B46" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -5966,11 +5984,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -6031,12 +6049,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="78" t="str">
+      <c r="B56" s="81" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -6170,11 +6188,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -6319,12 +6337,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="78" t="str">
+      <c r="B73" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -6435,12 +6453,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="78" t="str">
+      <c r="B78" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -6538,11 +6556,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="82"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -6593,12 +6611,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="78" t="str">
+      <c r="B88" s="81" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -6683,12 +6701,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B88:D88"/>
@@ -6698,6 +6710,12 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6768,11 +6786,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -7000,11 +7018,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -7151,11 +7169,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -7295,11 +7313,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7328,7 +7346,7 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>14</v>
       </c>
@@ -7341,18 +7359,18 @@
       </c>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -7360,7 +7378,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>30</v>
       </c>
@@ -7384,7 +7402,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="26"/>
       <c r="G29" s="36"/>
       <c r="H29" s="38"/>
@@ -7393,7 +7411,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
     </row>
-    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="26"/>
       <c r="G30" s="36"/>
       <c r="H30" s="38"/>
@@ -7402,7 +7420,7 @@
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
     </row>
-    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
@@ -7415,7 +7433,7 @@
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
     </row>
-    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <f>B2</f>
         <v>Suministro 1395500</v>
@@ -7464,11 +7482,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -7628,12 +7646,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="str">
+      <c r="B41" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -7757,12 +7775,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="78" t="str">
+      <c r="B46" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -7874,11 +7892,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -7939,12 +7957,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="78" t="str">
+      <c r="B56" s="81" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -8078,11 +8096,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -8227,12 +8245,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="78" t="str">
+      <c r="B73" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -8343,12 +8361,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="78" t="str">
+      <c r="B78" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -8446,11 +8464,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="82"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -8501,12 +8519,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="78" t="str">
+      <c r="B88" s="81" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -8533,6 +8551,1914 @@
       <c r="H89" s="38">
         <f>J81</f>
         <v>188.04827480000239</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>34534.5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>569.69999999999709</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>251.92133999999871</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>29.052540000000018</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>40.947720000000011</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>24.586320000000008</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>157.33475999999865</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>1.06</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>0.1575</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)+(H11))*0.18)</f>
+        <v>49.86924119999977</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.3603072000000038</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>8.5014396000000012</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>5.5563876000000008</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>29.451106799999756</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>686.7</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.125</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.125</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13" si="3">(H13/4)</f>
+        <v>1.125</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13" si="4">(H13/4)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>621</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>65.700000000000045</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H13)+(H11)</f>
+        <v>331.42058119999848</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I13)+(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>42.820347200000022</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>56.856659600000015</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>37.550207600000007</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>194.19336679999842</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>4.88</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>819.9</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>727.3</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>92.600000000000023</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>336.30058119999848</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>44.040347200000021</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>58.076659600000013</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>38.770207600000006</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>195.41336679999841</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>336.30058119999848</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>669.6</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>614</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>55.600000000000023</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>355.799999999997</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>195.41336679999841</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía MAYO 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-JUN-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>34534.5</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>569.69999999999709</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>251.92133999999871</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>40.947720000000011</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>1.06</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="81" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>49.86924119999977</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>8.5014396000000012</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>686.7</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.125</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>621</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>65.700000000000045</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>331.42058119999848</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>56.856659600000015</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="81" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>4.88</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>1.22</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>819.9</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>727.3</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>92.600000000000023</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>336.30058119999848</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>58.076659600000013</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>669.6</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>614</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>55.600000000000023</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="81" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>355.799999999997</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>58.076659600000013</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía MAYO 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 03-JUN-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>34534.5</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>33964.800000000003</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>569.69999999999709</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>251.92133999999871</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>157.33475999999865</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>1.06</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="81" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>49.86924119999977</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>29.451106799999756</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>686.7</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.5</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.125</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>621</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>65.700000000000045</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>331.42058119999848</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>194.19336679999842</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="81" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>4.88</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>819.9</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>727.3</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>92.600000000000023</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>336.30058119999848</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>195.41336679999841</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>669.6</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>614</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(15/04/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>55.600000000000023</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="81" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>355.799999999997</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>195.41336679999841</v>
       </c>
       <c r="I89" s="28"/>
       <c r="J89" s="6"/>
@@ -8611,12 +10537,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8650,7 +10576,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8660,7 +10586,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="M3" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8676,11 +10602,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -8710,10 +10636,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="11">
-        <v>34534.5</v>
+        <v>35047.1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
@@ -8746,10 +10672,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="11">
-        <v>33964.800000000003</v>
+        <v>34534.5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
@@ -8783,7 +10709,7 @@
       </c>
       <c r="C8" s="19">
         <f>(C6-C7)</f>
-        <v>569.69999999999709</v>
+        <v>512.59999999999854</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>15</v>
@@ -8793,28 +10719,28 @@
         <v>16</v>
       </c>
       <c r="G8" s="21">
-        <v>0.44219999999999998</v>
+        <v>0.44309999999999999</v>
       </c>
       <c r="H8" s="22">
         <f>(C8*G8)</f>
-        <v>251.92133999999871</v>
+        <v>227.13305999999935</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="23">
         <f>(C15*G8)</f>
-        <v>29.052540000000018</v>
+        <v>29.333219999999969</v>
       </c>
       <c r="K8" s="23">
         <f>(C20*G8)</f>
-        <v>40.947720000000011</v>
+        <v>43.113630000000029</v>
       </c>
       <c r="L8" s="23">
         <f>(C25*G8)</f>
-        <v>24.586320000000008</v>
+        <v>28.801500000000001</v>
       </c>
       <c r="M8" s="23">
         <f>(C28*G8)</f>
-        <v>157.33475999999865</v>
+        <v>125.88470999999936</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8857,24 +10783,24 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15">
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="16">
         <f>H10/4</f>
-        <v>0.26500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="K10" s="16">
         <f>H10/4</f>
-        <v>0.26500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="L10" s="16">
         <f>H10/4</f>
-        <v>0.26500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="M10" s="16">
         <f>H10/4</f>
-        <v>0.26500000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8887,32 +10813,32 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="16">
         <f>(H11/4)</f>
-        <v>0.1575</v>
+        <v>0</v>
       </c>
       <c r="K11" s="16">
         <f>(H11/4)</f>
-        <v>0.1575</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" ref="L11" si="0">(H11/4)</f>
-        <v>0.1575</v>
+        <v>0</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" ref="M11" si="1">(H11/4)</f>
-        <v>0.1575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -8920,7 +10846,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15">
         <f>((SUM(H6:H10)+(H11))*0.18)</f>
-        <v>49.86924119999977</v>
+        <v>45.117550799999883</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
@@ -8928,19 +10854,19 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" si="2"/>
-        <v>6.3603072000000038</v>
+        <v>6.3383795999999943</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>8.5014396000000012</v>
+        <v>8.8188534000000054</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="2"/>
-        <v>5.5563876000000008</v>
+        <v>6.2426700000000013</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="2"/>
-        <v>29.451106799999756</v>
+        <v>23.717647799999884</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8948,11 +10874,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="11">
-        <v>686.7</v>
+        <v>752.9</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>D6</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
@@ -8962,24 +10888,24 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="H13" s="15">
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16">
         <f>H13/4</f>
-        <v>1.125</v>
+        <v>1.0125</v>
       </c>
       <c r="K13" s="16">
         <f>H13/4</f>
-        <v>1.125</v>
+        <v>1.0125</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" ref="L13" si="3">(H13/4)</f>
-        <v>1.125</v>
+        <f t="shared" ref="L13:L14" si="3">(H13/4)</f>
+        <v>1.0125</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" ref="M13" si="4">(H13/4)</f>
-        <v>1.125</v>
+        <f t="shared" ref="M13:M14" si="4">(H13/4)</f>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8987,21 +10913,37 @@
         <v>12</v>
       </c>
       <c r="C14" s="11">
-        <v>621</v>
+        <v>686.7</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>D7</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15">
+        <v>6.3</v>
+      </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="J14" s="16">
+        <f>H14/4</f>
+        <v>1.575</v>
+      </c>
+      <c r="K14" s="16">
+        <f>H14/4</f>
+        <v>1.575</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="3"/>
+        <v>1.575</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.575</v>
+      </c>
     </row>
     <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
@@ -9009,7 +10951,7 @@
       </c>
       <c r="C15" s="19">
         <f>(C13-C14)</f>
-        <v>65.700000000000045</v>
+        <v>66.199999999999932</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>15</v>
@@ -9020,28 +10962,28 @@
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="15">
-        <f>SUM(H6:H10)+SUM(H12:H13)+(H11)</f>
-        <v>331.42058119999848</v>
+        <f>SUM(H6:H10)+SUM(H12:H14)+(H11)</f>
+        <v>306.12061079999921</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I13)+(I11)</f>
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I14)+(I11)</f>
         <v>0</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="5"/>
-        <v>42.820347200000022</v>
+        <v>44.139099599999966</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="5"/>
-        <v>56.856659600000015</v>
+        <v>60.399983400000039</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="5"/>
-        <v>37.550207600000007</v>
+        <v>43.511670000000009</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="5"/>
-        <v>194.19336679999842</v>
+        <v>158.06985779999923</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -9058,48 +11000,48 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="78" t="s">
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="15">
-        <v>4.88</v>
+        <v>0.01</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15">
         <f>H17/4</f>
-        <v>1.22</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="K17" s="15">
         <f>H17/4</f>
-        <v>1.22</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L17" s="15">
         <f>H17/4</f>
-        <v>1.22</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="M17" s="15">
         <f>H17/4</f>
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="11">
-        <v>819.9</v>
+        <v>917.2</v>
       </c>
       <c r="D18" s="12" t="str">
         <f>D6</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -9107,36 +11049,36 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="15">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="24">
         <f>(H18/4)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K18" s="24">
         <f>(H18/4)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L18" s="24">
         <f>(H18/4)</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M18" s="24">
         <f>(H18/4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>727.3</v>
+        <v>819.9</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>D7</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -9148,13 +11090,13 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="19">
         <f>(C18-C19)</f>
-        <v>92.600000000000023</v>
+        <v>97.300000000000068</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>15</v>
@@ -9166,7 +11108,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28">
         <f>(H15+H17-H18)</f>
-        <v>336.30058119999848</v>
+        <v>306.11061079999922</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
@@ -9174,93 +11116,93 @@
       </c>
       <c r="J20" s="28">
         <f t="shared" si="6"/>
-        <v>44.040347200000021</v>
+        <v>44.136599599999961</v>
       </c>
       <c r="K20" s="28">
         <f t="shared" si="6"/>
-        <v>58.076659600000013</v>
+        <v>60.397483400000034</v>
       </c>
       <c r="L20" s="28">
         <f t="shared" si="6"/>
-        <v>38.770207600000006</v>
+        <v>43.509170000000005</v>
       </c>
       <c r="M20" s="28">
         <f t="shared" si="6"/>
-        <v>195.41336679999841</v>
+        <v>158.06735779999923</v>
       </c>
       <c r="N20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="77">
         <f>SUM(J20:M20)</f>
-        <v>336.30058119999848</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306.11061079999922</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78" t="s">
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="11">
-        <v>669.6</v>
+        <v>734.6</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>D6</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="11">
-        <v>614</v>
+        <v>669.6</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>D7</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="19">
         <f>C23-C24</f>
-        <v>55.600000000000023</v>
+        <v>65</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="78" t="s">
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -9268,13 +11210,13 @@
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="34">
         <f>(C8-SUM(C15,C20,C25))</f>
-        <v>355.799999999997</v>
+        <v>284.09999999999854</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>15</v>
@@ -9286,7 +11228,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="37">
         <f>M20</f>
-        <v>195.41336679999841</v>
+        <v>158.06735779999923</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="6"/>
@@ -9342,7 +11284,7 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <f>B3</f>
-        <v>Consumo Energía MAYO 2016</v>
+        <v>Consumo Energía JUNIO 2016</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -9353,7 +11295,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="45" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 03-JUN-2016</v>
+        <v>FECHA DE VENCIMIENTO: 05-JUL-2016</v>
       </c>
       <c r="K33" s="46"/>
       <c r="L33" s="40"/>
@@ -9372,11 +11314,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -9401,11 +11343,11 @@
       </c>
       <c r="C36" s="50">
         <f>C6</f>
-        <v>34534.5</v>
+        <v>35047.1</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>D6</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="6" t="s">
@@ -9434,11 +11376,11 @@
       </c>
       <c r="C37" s="53">
         <f>C7</f>
-        <v>33964.800000000003</v>
+        <v>34534.5</v>
       </c>
       <c r="D37" s="54" t="str">
         <f>D7</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="6" t="s">
@@ -9464,7 +11406,7 @@
       </c>
       <c r="C38" s="56">
         <f>C8</f>
-        <v>569.69999999999709</v>
+        <v>512.59999999999854</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>15</v>
@@ -9475,16 +11417,16 @@
       </c>
       <c r="G38" s="14">
         <f>G8</f>
-        <v>0.44219999999999998</v>
+        <v>0.44309999999999999</v>
       </c>
       <c r="H38" s="22">
         <f>H8</f>
-        <v>251.92133999999871</v>
+        <v>227.13305999999935</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22">
         <f>K8</f>
-        <v>40.947720000000011</v>
+        <v>43.113630000000029</v>
       </c>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
@@ -9524,24 +11466,24 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15">
         <f>H10</f>
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15">
         <f>K10</f>
-        <v>0.26500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="str">
+      <c r="B41" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -9549,7 +11491,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15">
         <f t="shared" ref="H41:H42" si="7">H12</f>
-        <v>49.86924119999977</v>
+        <v>45.117550799999883</v>
       </c>
       <c r="I41" s="15">
         <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
@@ -9557,7 +11499,7 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" ref="J41:J49" si="9">K12</f>
-        <v>8.5014396000000012</v>
+        <v>8.8188534000000054</v>
       </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
@@ -9569,11 +11511,11 @@
       </c>
       <c r="C42" s="59">
         <f>C13</f>
-        <v>686.7</v>
+        <v>752.9</v>
       </c>
       <c r="D42" s="60" t="str">
         <f>D36</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
@@ -9585,12 +11527,12 @@
       </c>
       <c r="H42" s="15">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15">
         <f t="shared" si="9"/>
-        <v>1.125</v>
+        <v>1.0125</v>
       </c>
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
@@ -9602,11 +11544,11 @@
       </c>
       <c r="C43" s="61">
         <f>C14</f>
-        <v>621</v>
+        <v>686.7</v>
       </c>
       <c r="D43" s="54" t="str">
         <f>D37</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -9624,7 +11566,7 @@
       </c>
       <c r="C44" s="19">
         <f>C15</f>
-        <v>65.700000000000045</v>
+        <v>66.199999999999932</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>15</v>
@@ -9636,7 +11578,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15">
         <f>H15</f>
-        <v>331.42058119999848</v>
+        <v>306.12061079999921</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
@@ -9644,7 +11586,7 @@
       </c>
       <c r="J44" s="15">
         <f t="shared" si="9"/>
-        <v>56.856659600000015</v>
+        <v>60.399983400000039</v>
       </c>
       <c r="K44" s="58"/>
       <c r="L44" s="58"/>
@@ -9665,12 +11607,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="78" t="str">
+      <c r="B46" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -9678,12 +11620,12 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15">
         <f>H17</f>
-        <v>4.88</v>
+        <v>0.01</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15">
         <f t="shared" si="9"/>
-        <v>1.22</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="K46" s="58"/>
       <c r="L46" s="58"/>
@@ -9695,11 +11637,11 @@
       </c>
       <c r="C47" s="59">
         <f>C18</f>
-        <v>819.9</v>
+        <v>917.2</v>
       </c>
       <c r="D47" s="60" t="str">
         <f>D42</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
@@ -9708,12 +11650,12 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15">
         <f>H18</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K47" s="62"/>
       <c r="L47" s="62"/>
@@ -9725,11 +11667,11 @@
       </c>
       <c r="C48" s="61">
         <f>C19</f>
-        <v>727.3</v>
+        <v>819.9</v>
       </c>
       <c r="D48" s="54" t="str">
         <f>D43</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -9747,7 +11689,7 @@
       </c>
       <c r="C49" s="19">
         <f>C20</f>
-        <v>92.600000000000023</v>
+        <v>97.300000000000068</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>15</v>
@@ -9759,7 +11701,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28">
         <f>(H44+H46-H47)</f>
-        <v>336.30058119999848</v>
+        <v>306.11061079999922</v>
       </c>
       <c r="I49" s="28">
         <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
@@ -9767,7 +11709,7 @@
       </c>
       <c r="J49" s="22">
         <f t="shared" si="9"/>
-        <v>58.076659600000013</v>
+        <v>60.397483400000034</v>
       </c>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
@@ -9782,11 +11724,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -9797,11 +11739,11 @@
       </c>
       <c r="C52" s="59">
         <f>C23</f>
-        <v>669.6</v>
+        <v>734.6</v>
       </c>
       <c r="D52" s="60" t="str">
         <f>D36</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E52" s="13"/>
       <c r="K52" s="63"/>
@@ -9813,11 +11755,11 @@
       </c>
       <c r="C53" s="61">
         <f>C24</f>
-        <v>614</v>
+        <v>669.6</v>
       </c>
       <c r="D53" s="54" t="str">
         <f>D37</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E53" s="13"/>
       <c r="K53" s="63"/>
@@ -9829,7 +11771,7 @@
       </c>
       <c r="C54" s="19">
         <f>C25</f>
-        <v>55.600000000000023</v>
+        <v>65</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>15</v>
@@ -9847,12 +11789,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="78" t="str">
+      <c r="B56" s="81" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -9868,7 +11810,7 @@
       </c>
       <c r="C57" s="34">
         <f>C28</f>
-        <v>355.799999999997</v>
+        <v>284.09999999999854</v>
       </c>
       <c r="D57" s="35" t="s">
         <v>15</v>
@@ -9880,7 +11822,7 @@
       <c r="G57" s="36"/>
       <c r="H57" s="37">
         <f>J49</f>
-        <v>58.076659600000013</v>
+        <v>60.397483400000034</v>
       </c>
       <c r="I57" s="66"/>
       <c r="J57" s="6"/>
@@ -9958,7 +11900,7 @@
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f>B33</f>
-        <v>Consumo Energía MAYO 2016</v>
+        <v>Consumo Energía JUNIO 2016</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -9969,7 +11911,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="45" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 03-JUN-2016</v>
+        <v>FECHA DE VENCIMIENTO: 05-JUL-2016</v>
       </c>
       <c r="K65" s="40"/>
     </row>
@@ -9986,11 +11928,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -10013,11 +11955,11 @@
       </c>
       <c r="C68" s="50">
         <f>C6</f>
-        <v>34534.5</v>
+        <v>35047.1</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>D6</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="6" t="s">
@@ -10041,11 +11983,11 @@
       </c>
       <c r="C69" s="53">
         <f>C7</f>
-        <v>33964.800000000003</v>
+        <v>34534.5</v>
       </c>
       <c r="D69" s="54" t="str">
         <f>D7</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="6" t="s">
@@ -10069,7 +12011,7 @@
       </c>
       <c r="C70" s="56">
         <f>C8</f>
-        <v>569.69999999999709</v>
+        <v>512.59999999999854</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>15</v>
@@ -10080,16 +12022,16 @@
       </c>
       <c r="G70" s="21">
         <f>G8</f>
-        <v>0.44219999999999998</v>
+        <v>0.44309999999999999</v>
       </c>
       <c r="H70" s="22">
         <f>H8</f>
-        <v>251.92133999999871</v>
+        <v>227.13305999999935</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="23">
         <f>M8</f>
-        <v>157.33475999999865</v>
+        <v>125.88470999999936</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -10125,22 +12067,22 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15">
         <f>H10</f>
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="16">
         <f>M10</f>
-        <v>0.26500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="78" t="str">
+      <c r="B73" s="81" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="80"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -10148,7 +12090,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15">
         <f t="shared" ref="H73:H81" si="12">H12</f>
-        <v>49.86924119999977</v>
+        <v>45.117550799999883</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
@@ -10156,7 +12098,7 @@
       </c>
       <c r="J73" s="16">
         <f t="shared" ref="J73:J81" si="14">M12</f>
-        <v>29.451106799999756</v>
+        <v>23.717647799999884</v>
       </c>
       <c r="K73" s="40"/>
     </row>
@@ -10166,11 +12108,11 @@
       </c>
       <c r="C74" s="59">
         <f>C13</f>
-        <v>686.7</v>
+        <v>752.9</v>
       </c>
       <c r="D74" s="60" t="str">
         <f>D68</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
@@ -10182,12 +12124,12 @@
       </c>
       <c r="H74" s="15">
         <f t="shared" si="12"/>
-        <v>4.5</v>
+        <v>4.05</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="16">
         <f t="shared" si="14"/>
-        <v>1.125</v>
+        <v>1.0125</v>
       </c>
       <c r="K74" s="40"/>
     </row>
@@ -10197,11 +12139,11 @@
       </c>
       <c r="C75" s="61">
         <f>C14</f>
-        <v>621</v>
+        <v>686.7</v>
       </c>
       <c r="D75" s="54" t="str">
         <f>D69</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -10216,7 +12158,7 @@
       </c>
       <c r="C76" s="19">
         <f>C15</f>
-        <v>65.700000000000045</v>
+        <v>66.199999999999932</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>15</v>
@@ -10228,7 +12170,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15">
         <f t="shared" si="12"/>
-        <v>331.42058119999848</v>
+        <v>306.12061079999921</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
@@ -10236,7 +12178,7 @@
       </c>
       <c r="J76" s="16">
         <f t="shared" si="14"/>
-        <v>194.19336679999842</v>
+        <v>158.06985779999923</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -10251,12 +12193,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="78" t="str">
+      <c r="B78" s="81" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="80"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -10264,12 +12206,12 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15">
         <f t="shared" si="12"/>
-        <v>4.88</v>
+        <v>0.01</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="16">
         <f t="shared" si="14"/>
-        <v>1.22</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
@@ -10278,11 +12220,11 @@
       </c>
       <c r="C79" s="59">
         <f>C18</f>
-        <v>819.9</v>
+        <v>917.2</v>
       </c>
       <c r="D79" s="60" t="str">
         <f>D74</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
@@ -10291,12 +12233,12 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -10305,11 +12247,11 @@
       </c>
       <c r="C80" s="61">
         <f>C19</f>
-        <v>727.3</v>
+        <v>819.9</v>
       </c>
       <c r="D80" s="54" t="str">
         <f>D75</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -10324,7 +12266,7 @@
       </c>
       <c r="C81" s="19">
         <f>C20</f>
-        <v>92.600000000000023</v>
+        <v>97.300000000000068</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>15</v>
@@ -10336,7 +12278,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="22">
         <f t="shared" si="12"/>
-        <v>336.30058119999848</v>
+        <v>306.11061079999922</v>
       </c>
       <c r="I81" s="28">
         <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
@@ -10344,7 +12286,7 @@
       </c>
       <c r="J81" s="23">
         <f t="shared" si="14"/>
-        <v>195.41336679999841</v>
+        <v>158.06735779999923</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -10354,11 +12296,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="82"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="85"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -10367,11 +12309,11 @@
       </c>
       <c r="C84" s="59">
         <f>C23</f>
-        <v>669.6</v>
+        <v>734.6</v>
       </c>
       <c r="D84" s="60" t="str">
         <f>D68</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E84" s="13"/>
     </row>
@@ -10381,11 +12323,11 @@
       </c>
       <c r="C85" s="61">
         <f>C24</f>
-        <v>614</v>
+        <v>669.6</v>
       </c>
       <c r="D85" s="54" t="str">
         <f>D69</f>
-        <v>(15/04/16)</v>
+        <v>(17/05/16)</v>
       </c>
       <c r="E85" s="13"/>
     </row>
@@ -10395,7 +12337,7 @@
       </c>
       <c r="C86" s="19">
         <f>C25</f>
-        <v>55.600000000000023</v>
+        <v>65</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>15</v>
@@ -10409,12 +12351,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="78" t="str">
+      <c r="B88" s="81" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -10428,7 +12370,7 @@
       </c>
       <c r="C89" s="34">
         <f>C28</f>
-        <v>355.799999999997</v>
+        <v>284.09999999999854</v>
       </c>
       <c r="D89" s="35" t="s">
         <v>15</v>
@@ -10440,7 +12382,7 @@
       <c r="G89" s="36"/>
       <c r="H89" s="38">
         <f>J81</f>
-        <v>195.41336679999841</v>
+        <v>158.06735779999923</v>
       </c>
       <c r="I89" s="28"/>
       <c r="J89" s="6"/>

--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ABR 16" sheetId="4" r:id="rId4"/>
     <sheet name="MAY 16" sheetId="5" r:id="rId5"/>
     <sheet name="JUN 16" sheetId="6" r:id="rId6"/>
+    <sheet name="JUL 16" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="60">
   <si>
     <t>Suministro 1395500</t>
   </si>
@@ -200,6 +201,15 @@
   </si>
   <si>
     <t>Afianzamiento Seguridad Energética</t>
+  </si>
+  <si>
+    <t>Consumo Energía JULIO 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 05-AGO-2016</t>
+  </si>
+  <si>
+    <t>(15/07/16)</t>
   </si>
 </sst>
 </file>
@@ -755,15 +765,6 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,6 +778,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,11 +1130,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -1322,11 +1332,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1473,11 +1483,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -1617,11 +1627,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -1670,11 +1680,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -1786,11 +1796,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -1950,12 +1960,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="str">
+      <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -2079,12 +2089,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="81" t="str">
+      <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -2196,11 +2206,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -2261,12 +2271,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="81" t="str">
+      <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -2400,11 +2410,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -2549,12 +2559,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="81" t="str">
+      <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -2665,12 +2675,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="81" t="str">
+      <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -2768,11 +2778,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="82"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,12 +2833,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="81" t="str">
+      <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -2913,6 +2923,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -2922,12 +2938,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -2999,11 +3009,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -3201,11 +3211,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -3352,11 +3362,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -3496,11 +3506,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -3549,11 +3559,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -3665,11 +3675,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -3829,12 +3839,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="str">
+      <c r="B40" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -3958,12 +3968,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="81" t="str">
+      <c r="B45" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="80"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -4075,11 +4085,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -4140,12 +4150,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="81" t="str">
+      <c r="B55" s="78" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -4279,11 +4289,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -4428,12 +4438,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="81" t="str">
+      <c r="B72" s="78" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -4544,12 +4554,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="81" t="str">
+      <c r="B77" s="78" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -4647,11 +4657,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="82"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -4702,12 +4712,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="81" t="str">
+      <c r="B87" s="78" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -4792,6 +4802,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B87:D87"/>
@@ -4801,12 +4817,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4878,11 +4888,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -5110,11 +5120,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -5261,11 +5271,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -5405,11 +5415,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5458,11 +5468,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -5574,11 +5584,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -5738,12 +5748,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -5867,12 +5877,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -5984,11 +5994,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -6049,12 +6059,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="78" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -6188,11 +6198,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -6337,12 +6347,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -6453,12 +6463,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -6556,11 +6566,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -6611,12 +6621,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="78" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -6701,6 +6711,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B88:D88"/>
@@ -6710,12 +6726,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6786,11 +6796,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -7018,11 +7028,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -7169,11 +7179,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -7313,11 +7323,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7366,11 +7376,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -7482,11 +7492,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -7646,12 +7656,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -7775,12 +7785,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -7892,11 +7902,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -7957,12 +7967,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="78" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -8096,11 +8106,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -8245,12 +8255,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -8361,12 +8371,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -8464,11 +8474,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -8519,12 +8529,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="78" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -8609,6 +8619,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B88:D88"/>
@@ -8618,12 +8634,6 @@
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8694,11 +8704,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -8926,11 +8936,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -9077,11 +9087,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -9221,11 +9231,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9274,11 +9284,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -9390,11 +9400,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -9554,12 +9564,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -9683,12 +9693,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -9800,11 +9810,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -9865,12 +9875,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="78" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -10004,11 +10014,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -10153,12 +10163,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -10269,12 +10279,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -10372,11 +10382,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -10427,12 +10437,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="78" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -10459,6 +10469,1930 @@
       <c r="H89" s="38">
         <f>J81</f>
         <v>195.41336679999841</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>35047.1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>34534.5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>512.59999999999854</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>227.13305999999935</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>29.333219999999969</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>43.113630000000029</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>28.801500000000001</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>125.88470999999936</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)+(H11))*0.18)</f>
+        <v>45.117550799999883</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.3383795999999943</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>8.8188534000000054</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.2426700000000013</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>23.717647799999884</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>752.9</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.05</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.0125</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.0125</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13:L14" si="3">(H13/4)</f>
+        <v>1.0125</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M14" si="4">(H13/4)</f>
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>686.7</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16">
+        <f>H14/4</f>
+        <v>1.575</v>
+      </c>
+      <c r="K14" s="16">
+        <f>H14/4</f>
+        <v>1.575</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="3"/>
+        <v>1.575</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.575</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>66.199999999999932</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H14)+(H11)</f>
+        <v>306.12061079999921</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I14)+(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>44.139099599999966</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>60.399983400000039</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>43.511670000000009</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>158.06985779999923</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>917.2</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>819.9</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>97.300000000000068</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>306.11061079999922</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>44.136599599999961</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>60.397483400000034</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>43.509170000000005</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>158.06735779999923</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>306.11061079999922</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>734.6</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>669.6</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>65</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>284.09999999999854</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>158.06735779999923</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía JUNIO 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 05-JUL-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>35047.1</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>34534.5</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>512.59999999999854</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>227.13305999999935</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>43.113630000000029</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>0.08</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>0.02</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="78" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>45.117550799999883</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>8.8188534000000054</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>752.9</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.05</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0125</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>686.7</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>66.199999999999932</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>306.12061079999921</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>60.399983400000039</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="78" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>917.2</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0.02</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>819.9</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>97.300000000000068</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>306.11061079999922</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>60.397483400000034</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>734.6</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>669.6</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>65</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="78" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>284.09999999999854</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>60.397483400000034</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía JUNIO 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 05-JUL-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>35047.1</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>34534.5</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>512.59999999999854</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>227.13305999999935</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>125.88470999999936</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>0.08</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>0.02</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="78" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>45.117550799999883</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>23.717647799999884</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>752.9</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.05</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.0125</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>686.7</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>66.199999999999932</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>306.12061079999921</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>158.06985779999923</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="78" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>0.01</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>917.2</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>819.9</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>97.300000000000068</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>306.11061079999922</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>158.06735779999923</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>734.6</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(16/06/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>669.6</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(17/05/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>65</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="78" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>284.09999999999854</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>158.06735779999923</v>
       </c>
       <c r="I89" s="28"/>
       <c r="J89" s="6"/>
@@ -10537,12 +12471,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10576,7 +12510,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10586,10 +12520,10 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="M3" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -10602,11 +12536,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -10636,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="11">
-        <v>35047.1</v>
+        <v>35591.199999999997</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
@@ -10672,10 +12606,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="11">
-        <v>34534.5</v>
+        <v>35047.1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
@@ -10709,7 +12643,7 @@
       </c>
       <c r="C8" s="19">
         <f>(C6-C7)</f>
-        <v>512.59999999999854</v>
+        <v>544.09999999999854</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>15</v>
@@ -10719,28 +12653,28 @@
         <v>16</v>
       </c>
       <c r="G8" s="21">
-        <v>0.44309999999999999</v>
+        <v>0.44490000000000002</v>
       </c>
       <c r="H8" s="22">
         <f>(C8*G8)</f>
-        <v>227.13305999999935</v>
+        <v>242.07008999999937</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="23">
         <f>(C15*G8)</f>
-        <v>29.333219999999969</v>
+        <v>21.488670000000031</v>
       </c>
       <c r="K8" s="23">
         <f>(C20*G8)</f>
-        <v>43.113630000000029</v>
+        <v>40.485900000000001</v>
       </c>
       <c r="L8" s="23">
         <f>(C25*G8)</f>
-        <v>28.801500000000001</v>
+        <v>32.388719999999978</v>
       </c>
       <c r="M8" s="23">
         <f>(C28*G8)</f>
-        <v>125.88470999999936</v>
+        <v>147.70679999999936</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10753,24 +12687,24 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15">
-        <v>19.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="16">
         <f>(H9/4)</f>
-        <v>4.9000000000000004</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="K9" s="16">
         <f>(H9/4)</f>
-        <v>4.9000000000000004</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="L9" s="16">
         <f>(H9/4)</f>
-        <v>4.9000000000000004</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="M9" s="16">
         <f>(H9/4)</f>
-        <v>4.9000000000000004</v>
+        <v>4.0250000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10783,24 +12717,24 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="16">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K10" s="16">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L10" s="16">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16">
         <f>H10/4</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10834,11 +12768,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -10846,7 +12780,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15">
         <f>((SUM(H6:H10)+(H11))*0.18)</f>
-        <v>45.117550799999883</v>
+        <v>47.161816199999883</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
@@ -10854,19 +12788,19 @@
       </c>
       <c r="J12" s="15">
         <f t="shared" si="2"/>
-        <v>6.3383795999999943</v>
+        <v>4.7652606000000057</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>8.8188534000000054</v>
+        <v>8.1847619999999992</v>
       </c>
       <c r="L12" s="15">
         <f t="shared" si="2"/>
-        <v>6.2426700000000013</v>
+        <v>6.7272695999999961</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="2"/>
-        <v>23.717647799999884</v>
+        <v>27.484523999999887</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10874,11 +12808,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="11">
-        <v>752.9</v>
+        <v>801.2</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>D6</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
@@ -10888,24 +12822,24 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="H13" s="15">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16">
         <f>H13/4</f>
-        <v>1.0125</v>
+        <v>1.075</v>
       </c>
       <c r="K13" s="16">
         <f>H13/4</f>
-        <v>1.0125</v>
+        <v>1.075</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" ref="L13:L14" si="3">(H13/4)</f>
-        <v>1.0125</v>
+        <v>1.075</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" ref="M13:M14" si="4">(H13/4)</f>
-        <v>1.0125</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10913,11 +12847,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="11">
-        <v>686.7</v>
+        <v>752.9</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>D7</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
@@ -10925,24 +12859,24 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="15">
-        <v>6.3</v>
+        <v>6.64</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="16">
         <f>H14/4</f>
-        <v>1.575</v>
+        <v>1.66</v>
       </c>
       <c r="K14" s="16">
         <f>H14/4</f>
-        <v>1.575</v>
+        <v>1.66</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="3"/>
-        <v>1.575</v>
+        <v>1.66</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="4"/>
-        <v>1.575</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -10951,7 +12885,7 @@
       </c>
       <c r="C15" s="19">
         <f>(C13-C14)</f>
-        <v>66.199999999999932</v>
+        <v>48.300000000000068</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>15</v>
@@ -10963,7 +12897,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15">
         <f>SUM(H6:H10)+SUM(H12:H14)+(H11)</f>
-        <v>306.12061079999921</v>
+        <v>320.11190619999923</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I14)+(I11)</f>
@@ -10971,19 +12905,19 @@
       </c>
       <c r="J15" s="15">
         <f t="shared" si="5"/>
-        <v>44.139099599999966</v>
+        <v>33.973930600000038</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="5"/>
-        <v>60.399983400000039</v>
+        <v>56.390661999999999</v>
       </c>
       <c r="L15" s="15">
         <f t="shared" si="5"/>
-        <v>43.511670000000009</v>
+        <v>46.835989599999976</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="5"/>
-        <v>158.06985779999923</v>
+        <v>182.91132399999927</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -11001,35 +12935,35 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="15">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15">
         <f>H17/4</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K17" s="15">
         <f>H17/4</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L17" s="15">
         <f>H17/4</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M17" s="15">
         <f>H17/4</f>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -11037,11 +12971,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="11">
-        <v>917.2</v>
+        <v>1008.2</v>
       </c>
       <c r="D18" s="12" t="str">
         <f>D6</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
@@ -11049,24 +12983,24 @@
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="15">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="24">
         <f>(H18/4)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K18" s="24">
         <f>(H18/4)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="L18" s="24">
         <f>(H18/4)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="M18" s="24">
         <f>(H18/4)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -11074,11 +13008,11 @@
         <v>12</v>
       </c>
       <c r="C19" s="11">
-        <v>819.9</v>
+        <v>917.2</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>D7</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -11096,7 +13030,7 @@
       </c>
       <c r="C20" s="19">
         <f>(C18-C19)</f>
-        <v>97.300000000000068</v>
+        <v>91</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>15</v>
@@ -11108,7 +13042,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28">
         <f>(H15+H17-H18)</f>
-        <v>306.11061079999922</v>
+        <v>320.10190619999923</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
@@ -11116,26 +13050,26 @@
       </c>
       <c r="J20" s="28">
         <f t="shared" si="6"/>
-        <v>44.136599599999961</v>
+        <v>33.971430600000041</v>
       </c>
       <c r="K20" s="28">
         <f t="shared" si="6"/>
-        <v>60.397483400000034</v>
+        <v>56.388162000000001</v>
       </c>
       <c r="L20" s="28">
         <f t="shared" si="6"/>
-        <v>43.509170000000005</v>
+        <v>46.833489599999979</v>
       </c>
       <c r="M20" s="28">
         <f t="shared" si="6"/>
-        <v>158.06735779999923</v>
+        <v>182.90882399999927</v>
       </c>
       <c r="N20" s="76" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="77">
         <f>SUM(J20:M20)</f>
-        <v>306.11061079999922</v>
+        <v>320.10190619999929</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -11145,11 +13079,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -11157,11 +13091,11 @@
         <v>9</v>
       </c>
       <c r="C23" s="11">
-        <v>734.6</v>
+        <v>807.4</v>
       </c>
       <c r="D23" s="12" t="str">
         <f>D6</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E23" s="13"/>
     </row>
@@ -11170,11 +13104,11 @@
         <v>12</v>
       </c>
       <c r="C24" s="11">
-        <v>669.6</v>
+        <v>734.6</v>
       </c>
       <c r="D24" s="12" t="str">
         <f>D7</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E24" s="13"/>
     </row>
@@ -11184,7 +13118,7 @@
       </c>
       <c r="C25" s="19">
         <f>C23-C24</f>
-        <v>65</v>
+        <v>72.799999999999955</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>15</v>
@@ -11198,11 +13132,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -11216,7 +13150,7 @@
       </c>
       <c r="C28" s="34">
         <f>(C8-SUM(C15,C20,C25))</f>
-        <v>284.09999999999854</v>
+        <v>331.99999999999852</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>15</v>
@@ -11228,7 +13162,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="37">
         <f>M20</f>
-        <v>158.06735779999923</v>
+        <v>182.90882399999927</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="6"/>
@@ -11284,7 +13218,7 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <f>B3</f>
-        <v>Consumo Energía JUNIO 2016</v>
+        <v>Consumo Energía JULIO 2016</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11295,7 +13229,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="45" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 05-JUL-2016</v>
+        <v>FECHA DE VENCIMIENTO: 05-AGO-2016</v>
       </c>
       <c r="K33" s="46"/>
       <c r="L33" s="40"/>
@@ -11314,11 +13248,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -11343,11 +13277,11 @@
       </c>
       <c r="C36" s="50">
         <f>C6</f>
-        <v>35047.1</v>
+        <v>35591.199999999997</v>
       </c>
       <c r="D36" s="12" t="str">
         <f>D6</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="6" t="s">
@@ -11376,11 +13310,11 @@
       </c>
       <c r="C37" s="53">
         <f>C7</f>
-        <v>34534.5</v>
+        <v>35047.1</v>
       </c>
       <c r="D37" s="54" t="str">
         <f>D7</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="6" t="s">
@@ -11406,7 +13340,7 @@
       </c>
       <c r="C38" s="56">
         <f>C8</f>
-        <v>512.59999999999854</v>
+        <v>544.09999999999854</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>15</v>
@@ -11417,16 +13351,16 @@
       </c>
       <c r="G38" s="14">
         <f>G8</f>
-        <v>0.44309999999999999</v>
+        <v>0.44490000000000002</v>
       </c>
       <c r="H38" s="22">
         <f>H8</f>
-        <v>227.13305999999935</v>
+        <v>242.07008999999937</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22">
         <f>K8</f>
-        <v>43.113630000000029</v>
+        <v>40.485900000000001</v>
       </c>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
@@ -11443,12 +13377,12 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15">
         <f>H9</f>
-        <v>19.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15">
         <f>K9</f>
-        <v>4.9000000000000004</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="K39" s="51"/>
       <c r="L39" s="51"/>
@@ -11466,24 +13400,24 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15">
         <f>H10</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15">
         <f>K10</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -11491,7 +13425,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15">
         <f t="shared" ref="H41:H42" si="7">H12</f>
-        <v>45.117550799999883</v>
+        <v>47.161816199999883</v>
       </c>
       <c r="I41" s="15">
         <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
@@ -11499,7 +13433,7 @@
       </c>
       <c r="J41" s="15">
         <f t="shared" ref="J41:J49" si="9">K12</f>
-        <v>8.8188534000000054</v>
+        <v>8.1847619999999992</v>
       </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
@@ -11511,11 +13445,11 @@
       </c>
       <c r="C42" s="59">
         <f>C13</f>
-        <v>752.9</v>
+        <v>801.2</v>
       </c>
       <c r="D42" s="60" t="str">
         <f>D36</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
@@ -11527,12 +13461,12 @@
       </c>
       <c r="H42" s="15">
         <f t="shared" si="7"/>
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15">
         <f t="shared" si="9"/>
-        <v>1.0125</v>
+        <v>1.075</v>
       </c>
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
@@ -11544,11 +13478,11 @@
       </c>
       <c r="C43" s="61">
         <f>C14</f>
-        <v>686.7</v>
+        <v>752.9</v>
       </c>
       <c r="D43" s="54" t="str">
         <f>D37</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -11566,7 +13500,7 @@
       </c>
       <c r="C44" s="19">
         <f>C15</f>
-        <v>66.199999999999932</v>
+        <v>48.300000000000068</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>15</v>
@@ -11578,7 +13512,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15">
         <f>H15</f>
-        <v>306.12061079999921</v>
+        <v>320.11190619999923</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
@@ -11586,7 +13520,7 @@
       </c>
       <c r="J44" s="15">
         <f t="shared" si="9"/>
-        <v>60.399983400000039</v>
+        <v>56.390661999999999</v>
       </c>
       <c r="K44" s="58"/>
       <c r="L44" s="58"/>
@@ -11607,12 +13541,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -11620,12 +13554,12 @@
       <c r="G46" s="14"/>
       <c r="H46" s="15">
         <f>H17</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15">
         <f t="shared" si="9"/>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K46" s="58"/>
       <c r="L46" s="58"/>
@@ -11637,11 +13571,11 @@
       </c>
       <c r="C47" s="59">
         <f>C18</f>
-        <v>917.2</v>
+        <v>1008.2</v>
       </c>
       <c r="D47" s="60" t="str">
         <f>D42</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
@@ -11650,12 +13584,12 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15">
         <f>H18</f>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15">
         <f t="shared" si="9"/>
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="K47" s="62"/>
       <c r="L47" s="62"/>
@@ -11667,11 +13601,11 @@
       </c>
       <c r="C48" s="61">
         <f>C19</f>
-        <v>819.9</v>
+        <v>917.2</v>
       </c>
       <c r="D48" s="54" t="str">
         <f>D43</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -11689,7 +13623,7 @@
       </c>
       <c r="C49" s="19">
         <f>C20</f>
-        <v>97.300000000000068</v>
+        <v>91</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>15</v>
@@ -11701,7 +13635,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28">
         <f>(H44+H46-H47)</f>
-        <v>306.11061079999922</v>
+        <v>320.10190619999923</v>
       </c>
       <c r="I49" s="28">
         <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
@@ -11709,7 +13643,7 @@
       </c>
       <c r="J49" s="22">
         <f t="shared" si="9"/>
-        <v>60.397483400000034</v>
+        <v>56.388162000000001</v>
       </c>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
@@ -11724,11 +13658,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -11739,11 +13673,11 @@
       </c>
       <c r="C52" s="59">
         <f>C23</f>
-        <v>734.6</v>
+        <v>807.4</v>
       </c>
       <c r="D52" s="60" t="str">
         <f>D36</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E52" s="13"/>
       <c r="K52" s="63"/>
@@ -11755,11 +13689,11 @@
       </c>
       <c r="C53" s="61">
         <f>C24</f>
-        <v>669.6</v>
+        <v>734.6</v>
       </c>
       <c r="D53" s="54" t="str">
         <f>D37</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E53" s="13"/>
       <c r="K53" s="63"/>
@@ -11771,7 +13705,7 @@
       </c>
       <c r="C54" s="19">
         <f>C25</f>
-        <v>65</v>
+        <v>72.799999999999955</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>15</v>
@@ -11789,12 +13723,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="78" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -11810,7 +13744,7 @@
       </c>
       <c r="C57" s="34">
         <f>C28</f>
-        <v>284.09999999999854</v>
+        <v>331.99999999999852</v>
       </c>
       <c r="D57" s="35" t="s">
         <v>15</v>
@@ -11822,7 +13756,7 @@
       <c r="G57" s="36"/>
       <c r="H57" s="37">
         <f>J49</f>
-        <v>60.397483400000034</v>
+        <v>56.388162000000001</v>
       </c>
       <c r="I57" s="66"/>
       <c r="J57" s="6"/>
@@ -11900,7 +13834,7 @@
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="str">
         <f>B33</f>
-        <v>Consumo Energía JUNIO 2016</v>
+        <v>Consumo Energía JULIO 2016</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -11911,7 +13845,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="45" t="str">
         <f>M3</f>
-        <v>FECHA DE VENCIMIENTO: 05-JUL-2016</v>
+        <v>FECHA DE VENCIMIENTO: 05-AGO-2016</v>
       </c>
       <c r="K65" s="40"/>
     </row>
@@ -11928,11 +13862,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -11955,11 +13889,11 @@
       </c>
       <c r="C68" s="50">
         <f>C6</f>
-        <v>35047.1</v>
+        <v>35591.199999999997</v>
       </c>
       <c r="D68" s="12" t="str">
         <f>D6</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="6" t="s">
@@ -11983,11 +13917,11 @@
       </c>
       <c r="C69" s="53">
         <f>C7</f>
-        <v>34534.5</v>
+        <v>35047.1</v>
       </c>
       <c r="D69" s="54" t="str">
         <f>D7</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="6" t="s">
@@ -12011,7 +13945,7 @@
       </c>
       <c r="C70" s="56">
         <f>C8</f>
-        <v>512.59999999999854</v>
+        <v>544.09999999999854</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>15</v>
@@ -12022,16 +13956,16 @@
       </c>
       <c r="G70" s="21">
         <f>G8</f>
-        <v>0.44309999999999999</v>
+        <v>0.44490000000000002</v>
       </c>
       <c r="H70" s="22">
         <f>H8</f>
-        <v>227.13305999999935</v>
+        <v>242.07008999999937</v>
       </c>
       <c r="I70" s="22"/>
       <c r="J70" s="23">
         <f>M8</f>
-        <v>125.88470999999936</v>
+        <v>147.70679999999936</v>
       </c>
       <c r="K70" s="40"/>
     </row>
@@ -12046,12 +13980,12 @@
       <c r="G71" s="14"/>
       <c r="H71" s="15">
         <f>H9</f>
-        <v>19.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="16">
         <f>M9</f>
-        <v>4.9000000000000004</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="K71" s="40"/>
     </row>
@@ -12067,22 +14001,22 @@
       <c r="G72" s="14"/>
       <c r="H72" s="15">
         <f>H10</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="16">
         <f>M10</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="78" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="80"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -12090,7 +14024,7 @@
       <c r="G73" s="14"/>
       <c r="H73" s="15">
         <f t="shared" ref="H73:H81" si="12">H12</f>
-        <v>45.117550799999883</v>
+        <v>47.161816199999883</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
@@ -12098,7 +14032,7 @@
       </c>
       <c r="J73" s="16">
         <f t="shared" ref="J73:J81" si="14">M12</f>
-        <v>23.717647799999884</v>
+        <v>27.484523999999887</v>
       </c>
       <c r="K73" s="40"/>
     </row>
@@ -12108,11 +14042,11 @@
       </c>
       <c r="C74" s="59">
         <f>C13</f>
-        <v>752.9</v>
+        <v>801.2</v>
       </c>
       <c r="D74" s="60" t="str">
         <f>D68</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
@@ -12124,12 +14058,12 @@
       </c>
       <c r="H74" s="15">
         <f t="shared" si="12"/>
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="16">
         <f t="shared" si="14"/>
-        <v>1.0125</v>
+        <v>1.075</v>
       </c>
       <c r="K74" s="40"/>
     </row>
@@ -12139,11 +14073,11 @@
       </c>
       <c r="C75" s="61">
         <f>C14</f>
-        <v>686.7</v>
+        <v>752.9</v>
       </c>
       <c r="D75" s="54" t="str">
         <f>D69</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -12158,7 +14092,7 @@
       </c>
       <c r="C76" s="19">
         <f>C15</f>
-        <v>66.199999999999932</v>
+        <v>48.300000000000068</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>15</v>
@@ -12170,7 +14104,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="15">
         <f t="shared" si="12"/>
-        <v>306.12061079999921</v>
+        <v>320.11190619999923</v>
       </c>
       <c r="I76" s="15">
         <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
@@ -12178,7 +14112,7 @@
       </c>
       <c r="J76" s="16">
         <f t="shared" si="14"/>
-        <v>158.06985779999923</v>
+        <v>182.91132399999927</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -12193,12 +14127,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="78" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="80"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -12206,12 +14140,12 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15">
         <f t="shared" si="12"/>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="16">
         <f t="shared" si="14"/>
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
@@ -12220,11 +14154,11 @@
       </c>
       <c r="C79" s="59">
         <f>C18</f>
-        <v>917.2</v>
+        <v>1008.2</v>
       </c>
       <c r="D79" s="60" t="str">
         <f>D74</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
@@ -12233,12 +14167,12 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15">
         <f t="shared" si="12"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="16">
         <f t="shared" si="14"/>
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
@@ -12247,11 +14181,11 @@
       </c>
       <c r="C80" s="61">
         <f>C19</f>
-        <v>819.9</v>
+        <v>917.2</v>
       </c>
       <c r="D80" s="54" t="str">
         <f>D75</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -12266,7 +14200,7 @@
       </c>
       <c r="C81" s="19">
         <f>C20</f>
-        <v>97.300000000000068</v>
+        <v>91</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>15</v>
@@ -12278,7 +14212,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="22">
         <f t="shared" si="12"/>
-        <v>306.11061079999922</v>
+        <v>320.10190619999923</v>
       </c>
       <c r="I81" s="28">
         <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
@@ -12286,7 +14220,7 @@
       </c>
       <c r="J81" s="23">
         <f t="shared" si="14"/>
-        <v>158.06735779999923</v>
+        <v>182.90882399999927</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -12296,11 +14230,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -12309,11 +14243,11 @@
       </c>
       <c r="C84" s="59">
         <f>C23</f>
-        <v>734.6</v>
+        <v>807.4</v>
       </c>
       <c r="D84" s="60" t="str">
         <f>D68</f>
-        <v>(16/06/16)</v>
+        <v>(15/07/16)</v>
       </c>
       <c r="E84" s="13"/>
     </row>
@@ -12323,11 +14257,11 @@
       </c>
       <c r="C85" s="61">
         <f>C24</f>
-        <v>669.6</v>
+        <v>734.6</v>
       </c>
       <c r="D85" s="54" t="str">
         <f>D69</f>
-        <v>(17/05/16)</v>
+        <v>(16/06/16)</v>
       </c>
       <c r="E85" s="13"/>
     </row>
@@ -12337,7 +14271,7 @@
       </c>
       <c r="C86" s="19">
         <f>C25</f>
-        <v>65</v>
+        <v>72.799999999999955</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>15</v>
@@ -12351,12 +14285,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="78" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -12370,7 +14304,7 @@
       </c>
       <c r="C89" s="34">
         <f>C28</f>
-        <v>284.09999999999854</v>
+        <v>331.99999999999852</v>
       </c>
       <c r="D89" s="35" t="s">
         <v>15</v>
@@ -12382,7 +14316,7 @@
       <c r="G89" s="36"/>
       <c r="H89" s="38">
         <f>J81</f>
-        <v>158.06735779999923</v>
+        <v>182.90882399999927</v>
       </c>
       <c r="I89" s="28"/>
       <c r="J89" s="6"/>

--- a/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
+++ b/Luz/SUM 1395500/Recibos_luz_1395500_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ENE 16" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="JUN 16" sheetId="6" r:id="rId6"/>
     <sheet name="JUL 16" sheetId="7" r:id="rId7"/>
     <sheet name="AGO 16" sheetId="8" r:id="rId8"/>
+    <sheet name="SET 16" sheetId="9" r:id="rId9"/>
+    <sheet name="OCT 16" sheetId="10" r:id="rId10"/>
+    <sheet name="NOV 16" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="72">
   <si>
     <t>Suministro 1395500</t>
   </si>
@@ -220,6 +223,33 @@
   </si>
   <si>
     <t>FECHA DE VENCIMIENTO: 05-SET-2016</t>
+  </si>
+  <si>
+    <t>(16/09/16)</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 04-OCT-2016</t>
+  </si>
+  <si>
+    <t>Consumo Energía SETIEMBRE 2016</t>
+  </si>
+  <si>
+    <t>Consumo Energía OCTUBRE 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 04-NOV-2016</t>
+  </si>
+  <si>
+    <t>(17/10/16)</t>
+  </si>
+  <si>
+    <t>Consumo Energía NOVIEMBRE 2016</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO: 04-DIC-2016</t>
+  </si>
+  <si>
+    <t>(15/11/16)</t>
   </si>
 </sst>
 </file>
@@ -787,6 +817,12 @@
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,12 +846,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,11 +1188,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -1360,11 +1390,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -1511,11 +1541,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -1655,11 +1685,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,11 +1738,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -1824,11 +1854,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -1988,12 +2018,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="str">
+      <c r="B40" s="83" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -2117,12 +2147,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="81" t="str">
+      <c r="B45" s="83" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -2234,11 +2264,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="87"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -2299,12 +2329,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="81" t="str">
+      <c r="B55" s="83" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -2438,11 +2468,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -2587,12 +2617,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="81" t="str">
+      <c r="B72" s="83" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -2703,12 +2733,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="81" t="str">
+      <c r="B77" s="83" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="85"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -2806,11 +2836,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="87"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -2861,12 +2891,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="81" t="str">
+      <c r="B87" s="83" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="85"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -2969,6 +2999,3854 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>37246.699999999997</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>36728.800000000003</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>517.89999999999418</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>235.48912999999735</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>31.829000000000001</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>35.4666</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>27.918579999999988</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>140.27494999999738</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)-(H11))*0.18)</f>
+        <v>46.025843399999516</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.6386699999999985</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>7.2934379999999983</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>5.9347943999999977</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>26.15894099999953</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1007.6</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.09</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.0225</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.0225</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13:L14" si="3">(H13/4)</f>
+        <v>1.0225</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M14" si="4">(H13/4)</f>
+        <v>1.0225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>937.6</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>6.32</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16">
+        <f>H14/4</f>
+        <v>1.58</v>
+      </c>
+      <c r="K14" s="16">
+        <f>H14/4</f>
+        <v>1.58</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="3"/>
+        <v>1.58</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>70</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H14)-(H11)</f>
+        <v>312.13497339999685</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I14)+(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>46.122669999999992</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>50.415037999999996</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>41.50837439999998</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>174.08889099999692</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1264.3</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1186.3</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>78</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>312.10497339999682</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>46.115169999999992</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>50.407537999999995</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>41.500874399999979</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>174.08139099999693</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>312.10497339999688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1027</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>965.6</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>61.399999999999977</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>308.4999999999942</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>174.08139099999693</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía OCTUBRE 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-NOV-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>37246.699999999997</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.625</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>36728.800000000003</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>517.89999999999418</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>235.48912999999735</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>35.4666</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>0.26</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="83" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>46.025843399999516</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>7.2934379999999983</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>1007.6</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.09</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0225</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>937.6</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>70</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>312.13497339999685</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>50.415037999999996</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="83" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>0.02</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>1264.3</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>1186.3</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>78</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>312.10497339999682</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>50.407537999999995</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>1027</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>965.6</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>61.399999999999977</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="83" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>308.4999999999942</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>50.407537999999995</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía OCTUBRE 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-NOV-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>37246.699999999997</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.5</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.625</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>36728.800000000003</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>517.89999999999418</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>235.48912999999735</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>140.27494999999738</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>0.26</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="83" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>46.025843399999516</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>26.15894099999953</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>1007.6</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.09</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.0225</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>937.6</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>70</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>312.13497339999685</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>174.08889099999692</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="83" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>1264.3</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>1186.3</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>78</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>312.10497339999682</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>174.08139099999693</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>1027</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>965.6</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>61.399999999999977</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="83" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>308.4999999999942</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>174.08139099999693</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>37798.1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62749999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>37246.699999999997</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.37</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.34250000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>551.40000000000146</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.46339999999999998</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>255.51876000000067</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>39.713379999999965</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>39.945080000000019</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>28.406419999999979</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>147.45388000000071</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)-(H11))*0.18)</f>
+        <v>49.64917680000012</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>8.0623583999999937</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>8.1040644000000039</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.027105599999997</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>27.455648400000129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1093.3</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13:L14" si="3">(H13/4)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M14" si="4">(H13/4)</f>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1007.6</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>6.84</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16">
+        <f>H14/4</f>
+        <v>1.71</v>
+      </c>
+      <c r="K14" s="16">
+        <f>H14/4</f>
+        <v>1.71</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="3"/>
+        <v>1.71</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>85.699999999999932</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H14)-(H11)</f>
+        <v>336.67793680000079</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I14)+(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>55.653238399999964</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>55.926644400000022</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>42.311025599999979</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>182.78702840000085</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1350.5</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1264.3</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>86.200000000000045</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>336.69793680000078</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>55.658238399999966</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>55.931644400000025</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>42.316025599999982</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>182.79202840000085</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>336.69793680000083</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1088.3</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1027</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>61.299999999999955</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>318.20000000000152</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>182.79202840000085</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía NOVIEMBRE 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-DIC-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>37798.1</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>37246.699999999997</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>551.40000000000146</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.46339999999999998</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>255.51876000000067</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>39.945080000000019</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>0.33</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="83" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>49.64917680000012</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>8.1040644000000039</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>1093.3</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>1007.6</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>85.699999999999932</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>336.67793680000079</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>55.926644400000022</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="83" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>0.06</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>1350.5</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0.04</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>1264.3</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>86.200000000000045</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>336.69793680000078</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>55.931644400000025</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>1088.3</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>1027</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>61.299999999999955</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="83" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>318.20000000000152</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>55.931644400000025</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía NOVIEMBRE 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-DIC-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>37798.1</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>37246.699999999997</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.37</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>551.40000000000146</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.46339999999999998</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>255.51876000000067</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>147.45388000000071</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>0.33</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="83" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>49.64917680000012</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>27.455648400000129</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>1093.3</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>1007.6</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>85.699999999999932</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>336.67793680000079</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>182.78702840000085</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="83" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>0.06</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>1350.5</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0.04</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>1264.3</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>86.200000000000045</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>336.69793680000078</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>182.79202840000085</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>1088.3</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(15/11/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>1027</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(17/10/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>61.299999999999955</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="83" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>318.20000000000152</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>182.79202840000085</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B35:D35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3037,11 +6915,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -3239,11 +7117,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
@@ -3390,11 +7268,11 @@
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="13"/>
       <c r="F16" s="6" t="s">
         <v>24</v>
@@ -3534,11 +7412,11 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -3587,11 +7465,11 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="13"/>
       <c r="F26" s="30" t="s">
         <v>29</v>
@@ -3703,11 +7581,11 @@
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
         <v>2</v>
@@ -3867,12 +7745,12 @@
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="str">
+      <c r="B40" s="83" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
         <v>20</v>
@@ -3996,12 +7874,12 @@
       <c r="M44" s="51"/>
     </row>
     <row r="45" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="81" t="str">
+      <c r="B45" s="83" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="13"/>
       <c r="F45" s="6" t="s">
         <v>24</v>
@@ -4113,11 +7991,11 @@
       <c r="L49" s="40"/>
     </row>
     <row r="50" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="87"/>
       <c r="E50" s="13"/>
       <c r="K50" s="63"/>
       <c r="L50" s="40"/>
@@ -4178,12 +8056,12 @@
       <c r="L54" s="40"/>
     </row>
     <row r="55" spans="2:12" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="81" t="str">
+      <c r="B55" s="83" t="str">
         <f>B26</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85"/>
       <c r="E55" s="13"/>
       <c r="F55" s="30" t="s">
         <v>29</v>
@@ -4317,11 +8195,11 @@
       <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="78" t="s">
+      <c r="B66" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
         <v>2</v>
@@ -4466,12 +8344,12 @@
       <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="81" t="str">
+      <c r="B72" s="83" t="str">
         <f>B11</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
         <v>20</v>
@@ -4582,12 +8460,12 @@
       <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:11" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="81" t="str">
+      <c r="B77" s="83" t="str">
         <f>B16</f>
         <v>MEDIDOR 2 - M2 (Srta. Maria Jesus)</v>
       </c>
-      <c r="C77" s="82"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="85"/>
       <c r="E77" s="13"/>
       <c r="F77" s="6" t="s">
         <v>24</v>
@@ -4685,11 +8563,11 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="85"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="87"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,12 +8618,12 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:10" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="81" t="str">
+      <c r="B87" s="83" t="str">
         <f>B55</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="85"/>
       <c r="E87" s="13"/>
       <c r="F87" s="30" t="s">
         <v>33</v>
@@ -4916,11 +8794,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -5148,11 +9026,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -5299,11 +9177,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -5412,7 +9290,7 @@
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="79">
         <f t="shared" si="6"/>
         <v>32.922222399999981</v>
       </c>
@@ -5443,11 +9321,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5496,11 +9374,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -5612,11 +9490,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -5776,12 +9654,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -5905,12 +9783,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -6022,11 +9900,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -6087,12 +9965,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="83" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -6226,11 +10104,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -6375,12 +10253,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -6491,12 +10369,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -6594,11 +10472,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -6649,12 +10527,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="83" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -6824,11 +10702,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -7056,11 +10934,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -7207,11 +11085,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -7320,7 +11198,7 @@
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="79">
         <f t="shared" si="6"/>
         <v>40.87626760000002</v>
       </c>
@@ -7351,11 +11229,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7404,11 +11282,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -7520,11 +11398,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -7684,12 +11562,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -7813,12 +11691,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -7930,11 +11808,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -7995,12 +11873,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="83" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -8134,11 +12012,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -8283,12 +12161,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -8399,12 +12277,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -8502,11 +12380,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -8557,12 +12435,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="83" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -8732,11 +12610,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -8964,11 +12842,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -9115,11 +12993,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -9228,7 +13106,7 @@
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="79">
         <f t="shared" si="6"/>
         <v>44.040347200000021</v>
       </c>
@@ -9259,11 +13137,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9312,11 +13190,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -9428,11 +13306,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -9592,12 +13470,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -9721,12 +13599,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -9838,11 +13716,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -9903,12 +13781,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="83" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -10042,11 +13920,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -10191,12 +14069,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -10307,12 +14185,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -10410,11 +14288,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -10465,12 +14343,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="83" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -10640,11 +14518,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -10872,11 +14750,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -11039,11 +14917,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -11152,7 +15030,7 @@
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="78">
         <f t="shared" si="6"/>
         <v>44.136599599999961</v>
       </c>
@@ -11183,11 +15061,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -11236,11 +15114,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -11352,11 +15230,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -11516,12 +15394,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -11645,12 +15523,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -11762,11 +15640,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -11827,12 +15705,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="83" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -11966,11 +15844,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -12115,12 +15993,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -12231,12 +16109,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -12334,11 +16212,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -12389,12 +16267,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="83" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -12564,11 +16442,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -12796,11 +16674,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -12963,11 +16841,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -13076,7 +16954,7 @@
         <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="87">
+      <c r="J20" s="79">
         <f t="shared" si="6"/>
         <v>33.971430600000041</v>
       </c>
@@ -13107,11 +16985,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -13160,11 +17038,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -13276,11 +17154,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -13440,12 +17318,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -13569,12 +17447,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -13686,11 +17564,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -13751,12 +17629,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="83" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -13890,11 +17768,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -14039,12 +17917,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -14155,12 +18033,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -14258,11 +18136,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -14313,12 +18191,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="83" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -14427,8 +18305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14488,11 +18366,11 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
         <v>2</v>
@@ -14720,11 +18598,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>20</v>
@@ -14887,11 +18765,11 @@
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="13"/>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -15031,11 +18909,11 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -15084,11 +18962,11 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
         <v>29</v>
@@ -15200,11 +19078,11 @@
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>2</v>
@@ -15364,12 +19242,12 @@
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81" t="str">
+      <c r="B41" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -15493,12 +19371,12 @@
       <c r="M45" s="51"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="81" t="str">
+      <c r="B46" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
       <c r="E46" s="13"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -15610,11 +19488,11 @@
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="84"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
       <c r="E51" s="13"/>
       <c r="K51" s="63"/>
       <c r="L51" s="40"/>
@@ -15675,12 +19553,12 @@
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="81" t="str">
+      <c r="B56" s="83" t="str">
         <f>B27</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="13"/>
       <c r="F56" s="30" t="s">
         <v>29</v>
@@ -15814,11 +19692,11 @@
       <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="6"/>
       <c r="F67" s="7" t="s">
         <v>2</v>
@@ -15963,12 +19841,12 @@
       <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="81" t="str">
+      <c r="B73" s="83" t="str">
         <f>B12</f>
         <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
       </c>
-      <c r="C73" s="82"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
         <v>20</v>
@@ -16079,12 +19957,12 @@
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="81" t="str">
+      <c r="B78" s="83" t="str">
         <f>B17</f>
         <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
       </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
       <c r="E78" s="13"/>
       <c r="F78" s="6" t="s">
         <v>24</v>
@@ -16182,11 +20060,11 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="84"/>
-      <c r="D83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -16237,12 +20115,12 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="81" t="str">
+      <c r="B88" s="83" t="str">
         <f>B56</f>
         <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="13"/>
       <c r="F88" s="30" t="s">
         <v>33</v>
@@ -16345,4 +20223,1928 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>36728.800000000003</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="L6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="M6" s="16">
+        <f>(H6/4)</f>
+        <v>0.62250000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11">
+        <v>36172.800000000003</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>1.35</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="L7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <f>(H7/4)</f>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19">
+        <f>(C6-C7)</f>
+        <v>556</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(C8*G8)</f>
+        <v>251.53440000000001</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
+        <f>(C15*G8)</f>
+        <v>38.454000000000001</v>
+      </c>
+      <c r="K8" s="23">
+        <f>(C20*G8)</f>
+        <v>40.263600000000004</v>
+      </c>
+      <c r="L8" s="23">
+        <f>(C25*G8)</f>
+        <v>31.170359999999992</v>
+      </c>
+      <c r="M8" s="23">
+        <f>(C28*G8)</f>
+        <v>141.64644000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="L9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(H9/4)</f>
+        <v>4.0250000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <f>H10/4</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16">
+        <f>(H11/4)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="K11" s="16">
+        <f>(H11/4)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="0">(H11/4)</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="1">(H11/4)</f>
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f>((SUM(H6:H10)-(H11))*0.18)</f>
+        <v>48.892391999999994</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" ref="I12:M12" si="2">((SUM(I6:I10)+(I11))*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>7.8356700000000004</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>8.1613980000000002</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5246147999999975</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="2"/>
+        <v>26.410309200000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
+        <v>937.6</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>D6</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16">
+        <f>H13/4</f>
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="K13" s="16">
+        <f>H13/4</f>
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ref="L13:L14" si="3">(H13/4)</f>
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M14" si="4">(H13/4)</f>
+        <v>1.0974999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>852.6</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>D7</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>6.84</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16">
+        <f>H14/4</f>
+        <v>1.71</v>
+      </c>
+      <c r="K14" s="16">
+        <f>H14/4</f>
+        <v>1.71</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="3"/>
+        <v>1.71</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <f>(C13-C14)</f>
+        <v>85</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f>SUM(H6:H10)+SUM(H12:H14)-(H11)</f>
+        <v>331.74679199999997</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" ref="I15:M15" si="5">SUM(I6:I10)+SUM(I12:I14)+(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="5"/>
+        <v>54.174670000000006</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="5"/>
+        <v>56.309998000000007</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>45.579974799999988</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="5"/>
+        <v>175.94174920000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
+        <f>H17/4</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17/4</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <f>H17/4</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="M17" s="15">
+        <f>H17/4</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1186.3</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f>D6</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M18" s="24">
+        <f>(H18/4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1097.3</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>D7</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19">
+        <f>(C18-C19)</f>
+        <v>89</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28">
+        <f>(H15+H17-H18)</f>
+        <v>331.79679199999998</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:M20" si="6">(I15+I17-I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="6"/>
+        <v>54.187170000000002</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="6"/>
+        <v>56.322498000000003</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="6"/>
+        <v>45.592474799999984</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="6"/>
+        <v>175.95424920000005</v>
+      </c>
+      <c r="N20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="77">
+        <f>SUM(J20:M20)</f>
+        <v>332.05639200000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
+        <v>965.6</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f>D6</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>896.7</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>D7</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C23-C24</f>
+        <v>68.899999999999977</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="34">
+        <f>(C8-SUM(C15,C20,C25))</f>
+        <v>313.10000000000002</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37">
+        <f>M20</f>
+        <v>175.95424920000005</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="26"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="2:15" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f>B3</f>
+        <v>Consumo Energía SETIEMBRE 2016</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-OCT-2016</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <f>C6</f>
+        <v>36728.800000000003</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f>D6</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I36" s="15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <f>K6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="53">
+        <f>C7</f>
+        <v>36172.800000000003</v>
+      </c>
+      <c r="D37" s="54" t="str">
+        <f>D7</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
+        <f>K7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="56">
+        <f>C8</f>
+        <v>556</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14">
+        <f>G8</f>
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="H38" s="22">
+        <f>H8</f>
+        <v>251.53440000000001</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22">
+        <f>K8</f>
+        <v>40.263600000000004</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f>H9</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
+        <f>K9</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f>H10</f>
+        <v>0.26</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
+        <f>K10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="83" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" ref="H41:H42" si="7">H12</f>
+        <v>48.892391999999994</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" ref="I41" si="8">((SUM(I36:I39)-I40)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" ref="J41:J49" si="9">K12</f>
+        <v>8.1613980000000002</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="59">
+        <f>C13</f>
+        <v>937.6</v>
+      </c>
+      <c r="D42" s="60" t="str">
+        <f>D36</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H42" s="15">
+        <f t="shared" si="7"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
+        <f t="shared" si="9"/>
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="61">
+        <f>C14</f>
+        <v>852.6</v>
+      </c>
+      <c r="D43" s="54" t="str">
+        <f>D37</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C15</f>
+        <v>85</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f>H15</f>
+        <v>331.74679199999997</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" ref="I44" si="10">SUM(I36:I40)+SUM(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <f t="shared" si="9"/>
+        <v>56.309998000000007</v>
+      </c>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="83" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15">
+        <f>H17</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="59">
+        <f>C18</f>
+        <v>1186.3</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f>D42</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15">
+        <f>H18</f>
+        <v>0.02</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="61">
+        <f>C19</f>
+        <v>1097.3</v>
+      </c>
+      <c r="D48" s="54" t="str">
+        <f>D43</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="19">
+        <f>C20</f>
+        <v>89</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28">
+        <f>(H44+H46-H47)</f>
+        <v>331.79679199999998</v>
+      </c>
+      <c r="I49" s="28">
+        <f t="shared" ref="I49" si="11">(I44+I46-I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" si="9"/>
+        <v>56.322498000000003</v>
+      </c>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="13"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="13"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="59">
+        <f>C23</f>
+        <v>965.6</v>
+      </c>
+      <c r="D52" s="60" t="str">
+        <f>D36</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="61">
+        <f>C24</f>
+        <v>896.7</v>
+      </c>
+      <c r="D53" s="54" t="str">
+        <f>D37</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C25</f>
+        <v>68.899999999999977</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="13"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="83" t="str">
+        <f>B27</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="34">
+        <f>C28</f>
+        <v>313.10000000000002</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37">
+        <f>J49</f>
+        <v>56.322498000000003</v>
+      </c>
+      <c r="I57" s="66"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="26"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="67"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="44"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F61" s="26"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="str">
+        <f>B2</f>
+        <v>Suministro 1395500</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="40"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="str">
+        <f>B33</f>
+        <v>Consumo Energía SETIEMBRE 2016</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="45" t="str">
+        <f>M3</f>
+        <v>FECHA DE VENCIMIENTO: 04-OCT-2016</v>
+      </c>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="81"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="50">
+        <f>C6</f>
+        <v>36728.800000000003</v>
+      </c>
+      <c r="D68" s="12" t="str">
+        <f>D6</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f>H6</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16">
+        <f>M6</f>
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="K68" s="40"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="53">
+        <f>C7</f>
+        <v>36172.800000000003</v>
+      </c>
+      <c r="D69" s="54" t="str">
+        <f>D7</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f>H7</f>
+        <v>1.35</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16">
+        <f>M7</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="56">
+        <f>C8</f>
+        <v>556</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="21">
+        <f>G8</f>
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="H70" s="22">
+        <f>H8</f>
+        <v>251.53440000000001</v>
+      </c>
+      <c r="I70" s="22"/>
+      <c r="J70" s="23">
+        <f>M8</f>
+        <v>141.64644000000001</v>
+      </c>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f>H9</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16">
+        <f>M9</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="str">
+        <f>F10</f>
+        <v>Interés Compensatorio</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f>H10</f>
+        <v>0.26</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16">
+        <f>M10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="83" t="str">
+        <f>B12</f>
+        <v>MEDIDOR 1 - M1 (Sr. Roberto Valdiviezo)</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" ref="H73:H81" si="12">H12</f>
+        <v>48.892391999999994</v>
+      </c>
+      <c r="I73" s="15">
+        <f t="shared" ref="I73" si="13">((SUM(I68:I71)-I72)*0.18)</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" ref="J73:J81" si="14">M12</f>
+        <v>26.410309200000004</v>
+      </c>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="59">
+        <f>C13</f>
+        <v>937.6</v>
+      </c>
+      <c r="D74" s="60" t="str">
+        <f>D68</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="14">
+        <f>G13</f>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f t="shared" si="12"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16">
+        <f t="shared" si="14"/>
+        <v>1.0974999999999999</v>
+      </c>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="61">
+        <f>C14</f>
+        <v>852.6</v>
+      </c>
+      <c r="D75" s="54" t="str">
+        <f>D69</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C15</f>
+        <v>85</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>331.74679199999997</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" ref="I76" si="15">SUM(I68:I72)+SUM(I73:I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="14"/>
+        <v>175.94174920000003</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="83" t="str">
+        <f>B17</f>
+        <v>MEDIDOR 2 - M2 (Sra. Carmen Anicama)</v>
+      </c>
+      <c r="C78" s="84"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="12"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16">
+        <f t="shared" si="14"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="59">
+        <f>C18</f>
+        <v>1186.3</v>
+      </c>
+      <c r="D79" s="60" t="str">
+        <f>D74</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="61">
+        <f>C19</f>
+        <v>1097.3</v>
+      </c>
+      <c r="D80" s="54" t="str">
+        <f>D75</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C20</f>
+        <v>89</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="22">
+        <f t="shared" si="12"/>
+        <v>331.79679199999998</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81" si="16">(I76+I78-I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="23">
+        <f t="shared" si="14"/>
+        <v>175.95424920000005</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="59">
+        <f>C23</f>
+        <v>965.6</v>
+      </c>
+      <c r="D84" s="60" t="str">
+        <f>D68</f>
+        <v>(16/09/16)</v>
+      </c>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="61">
+        <f>C24</f>
+        <v>896.7</v>
+      </c>
+      <c r="D85" s="54" t="str">
+        <f>D69</f>
+        <v>(16/08/16)</v>
+      </c>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="19">
+        <f>C25</f>
+        <v>68.899999999999977</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="83" t="str">
+        <f>B56</f>
+        <v>MEDIDOR P- MP (Sra. Ursula Barrientos)</v>
+      </c>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="34">
+        <f>C28</f>
+        <v>313.10000000000002</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="38">
+        <f>J81</f>
+        <v>175.95424920000005</v>
+      </c>
+      <c r="I89" s="28"/>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="70"/>
+      <c r="E96" s="71"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="70"/>
+      <c r="E97" s="71"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="70"/>
+      <c r="E98" s="71"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="70"/>
+      <c r="E99" s="71"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="72"/>
+      <c r="K102" s="75"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="72"/>
+      <c r="K103" s="75"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="72"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="72"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="72"/>
+      <c r="K104" s="75"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="75"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="72"/>
+      <c r="K106" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B73:D73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>